--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="126">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -431,6 +431,10 @@
   </si>
   <si>
     <t>2020-05-27</t>
+  </si>
+  <si>
+    <t>2020-05-28</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -460,7 +464,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -476,12 +480,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -579,7 +577,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -878,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -923,7 +920,7 @@
       <c r="D2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>97</v>
       </c>
     </row>
@@ -940,7 +937,7 @@
       <c r="D3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -955,7 +952,7 @@
       <c r="D4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
@@ -2228,7 +2225,7 @@
       <c r="D79" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E79" s="5">
         <v>339</v>
       </c>
     </row>
@@ -2726,7 +2723,7 @@
       </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="10" t="s">
+      <c r="A109" s="9" t="s">
         <v>115</v>
       </c>
       <c r="B109" s="5">
@@ -2735,7 +2732,7 @@
       <c r="C109" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D109" s="11" t="s">
+      <c r="D109" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E109" s="5">
@@ -2743,7 +2740,7 @@
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="10" t="s">
+      <c r="A110" s="9" t="s">
         <v>116</v>
       </c>
       <c r="B110" s="5">
@@ -2752,7 +2749,7 @@
       <c r="C110" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D110" s="11" t="s">
+      <c r="D110" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E110" s="5">
@@ -2760,7 +2757,7 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="10" t="s">
+      <c r="A111" s="9" t="s">
         <v>117</v>
       </c>
       <c r="B111" s="3">
@@ -2769,7 +2766,7 @@
       <c r="C111" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D111" s="11" t="s">
+      <c r="D111" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E111" s="5">
@@ -2777,7 +2774,7 @@
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="10" t="s">
+      <c r="A112" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B112" s="3">
@@ -2786,7 +2783,7 @@
       <c r="C112" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D112" s="11" t="s">
+      <c r="D112" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E112" s="5">
@@ -2794,7 +2791,7 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="10" t="s">
+      <c r="A113" s="9" t="s">
         <v>119</v>
       </c>
       <c r="B113" s="3">
@@ -2803,7 +2800,7 @@
       <c r="C113" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D113" s="11" t="s">
+      <c r="D113" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E113" s="5">
@@ -2811,7 +2808,7 @@
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="10" t="s">
+      <c r="A114" s="9" t="s">
         <v>120</v>
       </c>
       <c r="B114" s="3">
@@ -2820,7 +2817,7 @@
       <c r="C114" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D114" s="11" t="s">
+      <c r="D114" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E114" s="5">
@@ -2828,7 +2825,7 @@
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="10" t="s">
+      <c r="A115" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B115" s="3">
@@ -2837,7 +2834,7 @@
       <c r="C115" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D115" s="11" t="s">
+      <c r="D115" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E115" s="5">
@@ -2845,16 +2842,16 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="10" t="s">
+      <c r="A116" s="9" t="s">
         <v>122</v>
       </c>
       <c r="B116" s="3">
-        <v>430006</v>
+        <v>430005</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D116" s="11" t="s">
+      <c r="D116" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E116" s="6">
@@ -2862,16 +2859,16 @@
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="10" t="s">
+      <c r="A117" s="9" t="s">
         <v>123</v>
       </c>
       <c r="B117" s="3">
-        <v>430006</v>
+        <v>430005</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D117" s="11" t="s">
+      <c r="D117" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E117" s="6">
@@ -2879,20 +2876,37 @@
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="10" t="s">
+      <c r="A118" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B118" s="3">
-        <v>430006</v>
+        <v>430005</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D118" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E118" s="6">
+      <c r="D118" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E118" s="5">
         <v>89</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E119" s="6">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="127">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -434,6 +434,10 @@
   </si>
   <si>
     <t>2020-05-28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-05-29</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -875,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F115" sqref="F115"/>
+      <selection activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2905,8 +2909,25 @@
       <c r="D119" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E119" s="6">
+      <c r="E119" s="5">
         <v>74</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E120" s="5">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="128">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -438,6 +438,10 @@
   </si>
   <si>
     <t>2020-05-29</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-05-30</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -879,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E122" sqref="E122"/>
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2926,8 +2930,25 @@
       <c r="D120" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E120" s="5">
+      <c r="E120" s="6">
         <v>105</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E121" s="6">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="129">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -442,6 +442,10 @@
   </si>
   <si>
     <t>2020-05-30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-05-31</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -883,9 +887,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
@@ -2947,8 +2951,25 @@
       <c r="D121" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E121" s="6">
+      <c r="E121" s="5">
         <v>68</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E122" s="5">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="130">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -446,6 +446,10 @@
   </si>
   <si>
     <t>2020-05-31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-06-01</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -887,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2972,6 +2976,23 @@
         <v>91</v>
       </c>
     </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E123" s="5">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="131">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -450,6 +450,10 @@
   </si>
   <si>
     <t>2020-06-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-06-02</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -891,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E122" sqref="E122"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2993,6 +2997,23 @@
         <v>149</v>
       </c>
     </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E124" s="5">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10230" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="132">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -454,6 +454,10 @@
   </si>
   <si>
     <t>2020-06-02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-06-03</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -895,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3014,6 +3018,23 @@
         <v>108</v>
       </c>
     </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E125" s="5">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10230" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="133">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -458,6 +458,10 @@
   </si>
   <si>
     <t>2020-06-03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-06-04</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -899,9 +903,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
@@ -3035,6 +3039,23 @@
         <v>131</v>
       </c>
     </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E126" s="5">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6825"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="134">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -462,6 +462,10 @@
   </si>
   <si>
     <t>2020-06-04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-06-05</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -903,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E126" sqref="E126"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3056,6 +3060,23 @@
         <v>133</v>
       </c>
     </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E127" s="3">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6825"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="135">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -466,6 +466,10 @@
   </si>
   <si>
     <t>2020-06-05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-06-06</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -907,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3077,6 +3081,23 @@
         <v>120</v>
       </c>
     </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E128" s="5">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7125" windowHeight="6675"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="136">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -470,6 +470,10 @@
   </si>
   <si>
     <t>2020-06-06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-06-07</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -911,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3098,6 +3102,23 @@
         <v>86</v>
       </c>
     </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E129" s="6">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7125" windowHeight="6675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="137">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -474,6 +474,10 @@
   </si>
   <si>
     <t>2020-06-07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-06-08</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -915,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3119,6 +3123,23 @@
         <v>83</v>
       </c>
     </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E130" s="6">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="137">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -919,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G129" sqref="G129"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3136,8 +3136,25 @@
       <c r="D130" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E130" s="6">
+      <c r="E130" s="5">
         <v>134</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B131" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E131" s="5">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="139">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -479,6 +479,13 @@
   <si>
     <t>2020-06-08</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-06-09</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-06-10</t>
   </si>
 </sst>
 </file>
@@ -919,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E131" sqref="E131"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3142,7 +3149,7 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B131" s="3">
         <v>430005</v>
@@ -3155,6 +3162,23 @@
       </c>
       <c r="E131" s="5">
         <v>96</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E132" s="5">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
-    <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
+    <sheet name="検査件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">帰国者・接触者相談センター相談件数!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">検査件数!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="140">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -486,6 +486,10 @@
   </si>
   <si>
     <t>2020-06-10</t>
+  </si>
+  <si>
+    <t>2020-06-11</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -926,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E132"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D137" sqref="D137"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3181,6 +3185,23 @@
         <v>105</v>
       </c>
     </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E133" s="5">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
-    <sheet name="検査件数" sheetId="1" r:id="rId1"/>
+    <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">検査件数!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">帰国者・接触者相談センター相談件数!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="143">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -489,6 +489,18 @@
   </si>
   <si>
     <t>2020-06-11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-06-12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-06-13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-06-14</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -930,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E133" sqref="E133"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3202,6 +3214,57 @@
         <v>86</v>
       </c>
     </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B134" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E134" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B135" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E135" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B136" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E136" s="3">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="144">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -501,6 +501,10 @@
   </si>
   <si>
     <t>2020-06-14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-06-15</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -942,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
+      <selection activeCell="E137" sqref="E137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3265,6 +3269,23 @@
         <v>60</v>
       </c>
     </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B137" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E137" s="5">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="145">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -505,6 +505,10 @@
   </si>
   <si>
     <t>2020-06-15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-06-16</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -946,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E137"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E137" sqref="E137"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3286,6 +3290,23 @@
         <v>89</v>
       </c>
     </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B138" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E138" s="5">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="146">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -509,6 +509,10 @@
   </si>
   <si>
     <t>2020-06-16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-06-17</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -950,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E138"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3307,6 +3311,23 @@
         <v>67</v>
       </c>
     </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B139" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E139" s="5">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="147">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -513,6 +513,10 @@
   </si>
   <si>
     <t>2020-06-17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-06-18</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -954,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E139"/>
+  <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D134" sqref="D134"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3328,6 +3332,23 @@
         <v>78</v>
       </c>
     </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B140" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E140" s="5">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="150">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -517,6 +517,18 @@
   </si>
   <si>
     <t>2020-06-18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-06-19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-06-21</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -958,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E140"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3349,6 +3361,57 @@
         <v>91</v>
       </c>
     </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B141" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E141" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B142" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E142" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B143" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E143" s="5">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="7125" windowHeight="6675"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="151">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -529,6 +529,10 @@
   </si>
   <si>
     <t>2020-06-21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-06-22</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -970,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:E144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C138" sqref="C138"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3412,6 +3416,23 @@
         <v>42</v>
       </c>
     </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B144" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E144" s="5">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="7125" windowHeight="6675"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="152">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -533,6 +533,10 @@
   </si>
   <si>
     <t>2020-06-22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-06-23</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -974,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B148" sqref="B148"/>
+      <selection activeCell="D148" sqref="D148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3433,6 +3437,23 @@
         <v>80</v>
       </c>
     </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B145" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E145" s="5">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="154">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -537,6 +537,14 @@
   </si>
   <si>
     <t>2020-06-23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-06-24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-06-25</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -978,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:E147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D148" sqref="D148"/>
+      <selection activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3454,6 +3462,40 @@
         <v>97</v>
       </c>
     </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B146" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E146" s="5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B147" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E147" s="5">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="157">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -545,6 +545,18 @@
   </si>
   <si>
     <t>2020-06-25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-06-27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-06-28</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -986,10 +998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E147"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D150" sqref="D150"/>
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3496,6 +3508,57 @@
         <v>104</v>
       </c>
     </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B148" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E148" s="5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B149" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E149" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B150" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E150" s="5">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="160">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -557,6 +557,18 @@
   </si>
   <si>
     <t>2020-06-28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-06-29</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-07-01</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -998,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E150"/>
+  <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3559,6 +3571,57 @@
         <v>55</v>
       </c>
     </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B151" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E151" s="5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B152" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E152" s="5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B153" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E153" s="5">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="161">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -569,6 +569,10 @@
   </si>
   <si>
     <t>2020-07-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-07-02</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1010,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E153"/>
+  <dimension ref="A1:E154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+      <selection activeCell="E154" sqref="E154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3622,6 +3626,23 @@
         <v>92</v>
       </c>
     </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B154" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E154" s="5">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="164">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -573,6 +573,18 @@
   </si>
   <si>
     <t>2020-07-02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-07-03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-07-04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-07-05</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1014,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E154"/>
+  <dimension ref="A1:E157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E154" sqref="E154"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3639,8 +3651,59 @@
       <c r="D154" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E154" s="5">
+      <c r="E154" s="6">
         <v>75</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B155" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E155" s="5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B156" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E156" s="5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B157" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E157" s="5">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="165">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -585,6 +585,10 @@
   </si>
   <si>
     <t>2020-07-05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-07-06</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1026,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E157"/>
+  <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A157" sqref="A157"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3706,6 +3710,23 @@
         <v>73</v>
       </c>
     </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B158" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E158" s="5">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="166">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -589,6 +589,10 @@
   </si>
   <si>
     <t>2020-07-06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-07-07</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1030,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E158"/>
+  <dimension ref="A1:E159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3723,8 +3727,25 @@
       <c r="D158" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E158" s="5">
+      <c r="E158" s="6">
         <v>122</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B159" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E159" s="6">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="167">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -593,6 +593,10 @@
   </si>
   <si>
     <t>2020-07-07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-07-08</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1034,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E159"/>
+  <dimension ref="A1:E160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A157" sqref="A157"/>
+      <selection activeCell="A160" sqref="A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3748,6 +3752,23 @@
         <v>101</v>
       </c>
     </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B160" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D160" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E160" s="6">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="168">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -597,6 +597,10 @@
   </si>
   <si>
     <t>2020-07-08</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-07-09</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1038,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E160"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A160" sqref="A160"/>
+      <selection activeCell="A161" sqref="A161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3769,6 +3773,23 @@
         <v>103</v>
       </c>
     </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B161" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D161" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E161" s="6">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="171">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -601,6 +601,18 @@
   </si>
   <si>
     <t>2020-07-09</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-07-11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-07-12</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -728,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -748,6 +760,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -757,6 +775,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1042,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1:E166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+      <selection activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1087,7 +1106,7 @@
       <c r="D2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="15" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1104,7 +1123,7 @@
       <c r="D3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -1119,7 +1138,7 @@
       <c r="D4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
@@ -3789,6 +3808,67 @@
       <c r="E161" s="6">
         <v>98</v>
       </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B162" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E162" s="5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B163" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D163" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E163" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B164" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D164" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E164" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="11"/>
+      <c r="B165" s="12"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="14"/>
+      <c r="E165" s="13"/>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="E166" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="173">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -613,6 +613,14 @@
   </si>
   <si>
     <t>2020-07-12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-07-13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-07-14</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -766,6 +774,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -775,7 +784,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1061,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E166"/>
+  <dimension ref="A1:E168"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A164" sqref="A164"/>
+      <selection activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1106,7 +1114,7 @@
       <c r="D2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1123,7 +1131,7 @@
       <c r="D3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -1138,7 +1146,7 @@
       <c r="D4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
@@ -3822,7 +3830,7 @@
       <c r="D162" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E162" s="5">
+      <c r="E162" s="6">
         <v>91</v>
       </c>
     </row>
@@ -3839,7 +3847,7 @@
       <c r="D163" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E163" s="5">
+      <c r="E163" s="6">
         <v>65</v>
       </c>
     </row>
@@ -3856,19 +3864,53 @@
       <c r="D164" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E164" s="5">
+      <c r="E164" s="6">
         <v>45</v>
       </c>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="11"/>
-      <c r="B165" s="12"/>
-      <c r="C165" s="13"/>
-      <c r="D165" s="14"/>
-      <c r="E165" s="13"/>
+      <c r="A165" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B165" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E165" s="5">
+        <v>157</v>
+      </c>
     </row>
     <row r="166" spans="1:5">
-      <c r="E166" s="18"/>
+      <c r="A166" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B166" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E166" s="5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="11"/>
+      <c r="B167" s="12"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="14"/>
+      <c r="E167" s="13"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="E168" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="174">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -621,6 +621,10 @@
   </si>
   <si>
     <t>2020-07-14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-07-15</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -748,7 +752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -766,12 +770,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1072,7 +1070,7 @@
   <dimension ref="A1:E168"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A166" sqref="A166"/>
+      <selection activeCell="E168" sqref="E168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1114,7 +1112,7 @@
       <c r="D2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="12" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1131,7 +1129,7 @@
       <c r="D3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -1146,7 +1144,7 @@
       <c r="D4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
@@ -3903,14 +3901,24 @@
       </c>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="11"/>
-      <c r="B167" s="12"/>
-      <c r="C167" s="13"/>
-      <c r="D167" s="14"/>
-      <c r="E167" s="13"/>
+      <c r="A167" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B167" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D167" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E167" s="5">
+        <v>128</v>
+      </c>
     </row>
     <row r="168" spans="1:5">
-      <c r="E168" s="15"/>
+      <c r="E168" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="175">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -625,6 +625,10 @@
   </si>
   <si>
     <t>2020-07-15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-07-16</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -752,7 +756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -772,7 +776,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1112,7 +1115,7 @@
       <c r="D2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1129,7 +1132,7 @@
       <c r="D3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -1144,7 +1147,7 @@
       <c r="D4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
@@ -3918,7 +3921,21 @@
       </c>
     </row>
     <row r="168" spans="1:5">
-      <c r="E168" s="11"/>
+      <c r="A168" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B168" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E168" s="5">
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="16950" windowHeight="4095"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="178">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -629,6 +629,18 @@
   </si>
   <si>
     <t>2020-07-16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-07-17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-07-18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-07-19</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1070,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E168"/>
+  <dimension ref="A1:E171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E168" sqref="E168"/>
+      <selection activeCell="E169" sqref="E169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3937,6 +3949,57 @@
         <v>125</v>
       </c>
     </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B169" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E169" s="5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B170" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D170" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E170" s="5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B171" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E171" s="5">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="16950" windowHeight="4095"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="179">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -641,6 +641,10 @@
   </si>
   <si>
     <t>2020-07-19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-07-20</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -768,7 +772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -797,6 +801,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1082,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E171"/>
+  <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E169" sqref="E169"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E173" sqref="E173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3949,11 +3954,11 @@
         <v>125</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" s="14" customFormat="1">
       <c r="A169" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169" s="5">
         <v>430005</v>
       </c>
       <c r="C169" s="5" t="s">
@@ -3966,11 +3971,11 @@
         <v>127</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" s="14" customFormat="1">
       <c r="A170" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B170" s="3">
+      <c r="B170" s="5">
         <v>430005</v>
       </c>
       <c r="C170" s="5" t="s">
@@ -3983,11 +3988,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" s="14" customFormat="1">
       <c r="A171" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171" s="5">
         <v>430005</v>
       </c>
       <c r="C171" s="5" t="s">
@@ -3998,6 +4003,23 @@
       </c>
       <c r="E171" s="5">
         <v>119</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" s="14" customFormat="1">
+      <c r="A172" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B172" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D172" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E172" s="5">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="180">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -645,6 +645,10 @@
   </si>
   <si>
     <t>2020-07-20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-07-21</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -792,6 +796,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -801,7 +806,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1087,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E172"/>
+  <dimension ref="A1:E173"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E173" sqref="E173"/>
+      <selection activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1132,7 +1136,7 @@
       <c r="D2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1149,7 +1153,7 @@
       <c r="D3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -1164,7 +1168,7 @@
       <c r="D4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
@@ -3954,7 +3958,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="169" spans="1:5" s="14" customFormat="1">
+    <row r="169" spans="1:5" s="11" customFormat="1">
       <c r="A169" s="9" t="s">
         <v>175</v>
       </c>
@@ -3971,7 +3975,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="170" spans="1:5" s="14" customFormat="1">
+    <row r="170" spans="1:5" s="11" customFormat="1">
       <c r="A170" s="9" t="s">
         <v>176</v>
       </c>
@@ -3988,7 +3992,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="171" spans="1:5" s="14" customFormat="1">
+    <row r="171" spans="1:5" s="11" customFormat="1">
       <c r="A171" s="9" t="s">
         <v>177</v>
       </c>
@@ -4005,7 +4009,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="172" spans="1:5" s="14" customFormat="1">
+    <row r="172" spans="1:5" s="11" customFormat="1">
       <c r="A172" s="9" t="s">
         <v>178</v>
       </c>
@@ -4020,6 +4024,23 @@
       </c>
       <c r="E172" s="5">
         <v>172</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" s="11" customFormat="1">
+      <c r="A173" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B173" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D173" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E173" s="5">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="188">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -650,6 +650,30 @@
   <si>
     <t>2020-07-21</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-07-22</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>2020-07-24</t>
+  </si>
+  <si>
+    <t>2020-07-25</t>
+  </si>
+  <si>
+    <t>2020-07-26</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>2020-07-28</t>
+  </si>
+  <si>
+    <t>2020-07-29</t>
   </si>
 </sst>
 </file>
@@ -1091,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E173"/>
+  <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A173" sqref="A173"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H173" sqref="H173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4043,6 +4067,142 @@
         <v>136</v>
       </c>
     </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B174" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D174" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E174" s="3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B175" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D175" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E175" s="3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B176" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E176" s="3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B177" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D177" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E177" s="3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B178" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E178" s="3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B179" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E179" s="3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B180" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E180" s="3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B181" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E181" s="3">
+        <v>376</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="189">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -674,6 +674,10 @@
   </si>
   <si>
     <t>2020-07-29</t>
+  </si>
+  <si>
+    <t>2020-07-30</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1115,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E181"/>
+  <dimension ref="A1:E182"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A168" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H173" sqref="H173"/>
+      <selection activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4203,6 +4207,23 @@
         <v>376</v>
       </c>
     </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B182" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D182" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E182" s="3">
+        <v>423</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="193">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -678,6 +678,19 @@
   <si>
     <t>2020-07-30</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>2020-08-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-08-02</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
   </si>
 </sst>
 </file>
@@ -1119,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E182"/>
+  <dimension ref="A1:E186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A182" sqref="A182"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4224,6 +4237,74 @@
         <v>423</v>
       </c>
     </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B183" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D183" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E183" s="3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B184" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D184" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E184" s="3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B185" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D185" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E185" s="3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B186" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D186" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E186" s="3">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="195">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -691,6 +691,14 @@
   </si>
   <si>
     <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>2020-08-04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-08-05</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1132,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E186"/>
+  <dimension ref="A1:E188"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A174" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E187" sqref="E187"/>
+      <selection activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4305,6 +4313,40 @@
         <v>141</v>
       </c>
     </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B187" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D187" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E187" s="3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B188" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D188" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E188" s="3">
+        <v>459</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8220"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="196">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -699,6 +699,9 @@
   <si>
     <t>2020-08-05</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-08-06</t>
   </si>
 </sst>
 </file>
@@ -1140,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E188"/>
+  <dimension ref="A1:E189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A174" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188"/>
+      <selection activeCell="E191" sqref="E191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4347,6 +4350,23 @@
         <v>459</v>
       </c>
     </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B189" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D189" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E189" s="3">
+        <v>428</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8220"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="10245" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="201">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -702,6 +702,21 @@
   </si>
   <si>
     <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>2020-08-07</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
+  </si>
+  <si>
+    <t>2020-08-09</t>
+  </si>
+  <si>
+    <t>2020-08-10</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
   </si>
 </sst>
 </file>
@@ -1143,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E189"/>
+  <dimension ref="A1:E194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E191" sqref="E191"/>
+    <sheetView tabSelected="1" topLeftCell="A180" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E199" sqref="E199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4367,6 +4382,91 @@
         <v>428</v>
       </c>
     </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B190" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D190" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E190" s="3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B191" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D191" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E191" s="3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B192" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D192" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E192" s="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B193" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D193" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E193" s="3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B194" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D194" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E194" s="3">
+        <v>284</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="10245" windowHeight="7755"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="202">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -717,6 +717,9 @@
   </si>
   <si>
     <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>2020-08-12</t>
   </si>
 </sst>
 </file>
@@ -1158,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E194"/>
+  <dimension ref="A1:E195"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A180" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E199" sqref="E199"/>
+      <selection activeCell="E197" sqref="E197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4467,6 +4470,23 @@
         <v>284</v>
       </c>
     </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B195" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D195" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E195" s="3">
+        <v>263</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="10245" windowHeight="7215"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="203">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -720,6 +720,9 @@
   </si>
   <si>
     <t>2020-08-12</t>
+  </si>
+  <si>
+    <t>2020-08-13</t>
   </si>
 </sst>
 </file>
@@ -846,7 +849,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -876,6 +879,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1161,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E195"/>
+  <dimension ref="A1:E198"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A180" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E197" sqref="E197"/>
+      <selection activeCell="H181" sqref="H181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4487,6 +4496,37 @@
         <v>263</v>
       </c>
     </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B196" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D196" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E196" s="3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="15"/>
+      <c r="B197" s="16"/>
+      <c r="C197" s="16"/>
+      <c r="D197" s="17"/>
+      <c r="E197" s="18"/>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="15"/>
+      <c r="B198" s="16"/>
+      <c r="C198" s="16"/>
+      <c r="D198" s="17"/>
+      <c r="E198" s="18"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="10245" windowHeight="7215"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="207">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -723,6 +723,18 @@
   </si>
   <si>
     <t>2020-08-13</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>2020-08-15</t>
+  </si>
+  <si>
+    <t>2020-08-16</t>
+  </si>
+  <si>
+    <t>2020-08-17</t>
   </si>
 </sst>
 </file>
@@ -849,7 +861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -879,12 +891,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1170,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E198"/>
+  <dimension ref="A1:E200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H181" sqref="H181"/>
+    <sheetView tabSelected="1" topLeftCell="A183" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4514,18 +4520,72 @@
       </c>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197" s="15"/>
-      <c r="B197" s="16"/>
-      <c r="C197" s="16"/>
-      <c r="D197" s="17"/>
-      <c r="E197" s="18"/>
+      <c r="A197" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B197" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D197" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E197" s="3">
+        <v>347</v>
+      </c>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198" s="15"/>
-      <c r="B198" s="16"/>
-      <c r="C198" s="16"/>
-      <c r="D198" s="17"/>
-      <c r="E198" s="18"/>
+      <c r="A198" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B198" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D198" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E198" s="3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B199" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D199" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E199" s="3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B200" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D200" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E200" s="3">
+        <v>427</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="208">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -735,6 +735,9 @@
   </si>
   <si>
     <t>2020-08-17</t>
+  </si>
+  <si>
+    <t>2020-08-18</t>
   </si>
 </sst>
 </file>
@@ -1176,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E200"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200"/>
+    <sheetView tabSelected="1" topLeftCell="A189" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I196" sqref="I196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4587,6 +4590,23 @@
         <v>427</v>
       </c>
     </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B201" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D201" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E201" s="3">
+        <v>306</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="209">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -738,6 +738,9 @@
   </si>
   <si>
     <t>2020-08-18</t>
+  </si>
+  <si>
+    <t>2020-08-19</t>
   </si>
 </sst>
 </file>
@@ -1179,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E202"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A189" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I196" sqref="I196"/>
+      <selection activeCell="A202" sqref="A202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4607,6 +4610,23 @@
         <v>306</v>
       </c>
     </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B202" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D202" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E202" s="3">
+        <v>277</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="213">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -741,6 +741,18 @@
   </si>
   <si>
     <t>2020-08-19</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>2020-08-21</t>
+  </si>
+  <si>
+    <t>2020-08-22</t>
+  </si>
+  <si>
+    <t>2020-08-23</t>
   </si>
 </sst>
 </file>
@@ -1182,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E202"/>
+  <dimension ref="A1:E206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202"/>
+    <sheetView tabSelected="1" topLeftCell="A195" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A206" sqref="A206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4627,6 +4639,74 @@
         <v>277</v>
       </c>
     </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B203" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D203" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E203" s="3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B204" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D204" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E204" s="3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B205" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D205" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E205" s="3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B206" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D206" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E206" s="3">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="214">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -753,6 +753,9 @@
   </si>
   <si>
     <t>2020-08-23</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
   </si>
 </sst>
 </file>
@@ -879,7 +882,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -908,6 +911,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1194,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E206"/>
+  <dimension ref="A1:E211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A206" sqref="A206"/>
+    <sheetView tabSelected="1" topLeftCell="A198" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E207" sqref="E207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4707,6 +4716,36 @@
         <v>154</v>
       </c>
     </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B207" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D207" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E207" s="5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="16"/>
+      <c r="B208" s="17"/>
+      <c r="C208" s="17"/>
+      <c r="D208" s="18"/>
+      <c r="E208" s="17"/>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="15"/>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="B211" s="15"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="215">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -756,6 +756,9 @@
   </si>
   <si>
     <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
   </si>
 </sst>
 </file>
@@ -882,7 +885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -903,6 +906,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -911,12 +915,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1206,7 +1204,7 @@
   <dimension ref="A1:E211"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A198" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E207" sqref="E207"/>
+      <selection activeCell="E208" sqref="E208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1248,7 +1246,7 @@
       <c r="D2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1265,7 +1263,7 @@
       <c r="D3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -1280,7 +1278,7 @@
       <c r="D4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
@@ -4734,17 +4732,27 @@
       </c>
     </row>
     <row r="208" spans="1:5">
-      <c r="A208" s="16"/>
-      <c r="B208" s="17"/>
-      <c r="C208" s="17"/>
-      <c r="D208" s="18"/>
-      <c r="E208" s="17"/>
+      <c r="A208" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B208" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D208" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E208" s="5">
+        <v>253</v>
+      </c>
     </row>
     <row r="209" spans="1:2">
-      <c r="A209" s="15"/>
+      <c r="A209" s="12"/>
     </row>
     <row r="211" spans="1:2">
-      <c r="B211" s="15"/>
+      <c r="B211" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6555"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">帰国者・接触者相談センター相談件数!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="219">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -759,6 +759,18 @@
   </si>
   <si>
     <t>2020-08-25</t>
+  </si>
+  <si>
+    <t>2020-08-26</t>
+  </si>
+  <si>
+    <t>2020-08-27</t>
+  </si>
+  <si>
+    <t>2020-08-28</t>
+  </si>
+  <si>
+    <t>2020-08-29</t>
   </si>
 </sst>
 </file>
@@ -885,7 +897,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -915,6 +927,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1201,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E211"/>
+  <dimension ref="A1:E213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E208" sqref="E208"/>
+    <sheetView tabSelected="1" topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A215" sqref="A215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4748,11 +4765,80 @@
         <v>253</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="12"/>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="B211" s="12"/>
+    <row r="209" spans="1:5">
+      <c r="A209" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B209" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D209" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E209" s="5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B210" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D210" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E210" s="5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B211" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D211" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E211" s="5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B212" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D212" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E212" s="5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="16"/>
+      <c r="B213" s="17"/>
+      <c r="C213" s="17"/>
+      <c r="D213" s="18"/>
+      <c r="E213" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6555"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6825"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="222">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -772,12 +772,22 @@
   <si>
     <t>2020-08-29</t>
   </si>
+  <si>
+    <t>2020-08-30</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>2020-09-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -798,6 +808,19 @@
       <name val="ヒラギノ角ゴ pro w3"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -897,7 +920,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -918,7 +941,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -928,9 +950,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1218,7 +1240,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E213"/>
+  <dimension ref="A1:E215"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A215" sqref="A215"/>
@@ -1263,7 +1285,7 @@
       <c r="D2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1280,7 +1302,7 @@
       <c r="D3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -1295,7 +1317,7 @@
       <c r="D4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="15"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
@@ -4834,11 +4856,55 @@
       </c>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213" s="16"/>
-      <c r="B213" s="17"/>
-      <c r="C213" s="17"/>
-      <c r="D213" s="18"/>
-      <c r="E213" s="12"/>
+      <c r="A213" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B213" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D213" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E213" s="5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B214" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D214" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E214" s="5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B215" s="16">
+        <v>430005</v>
+      </c>
+      <c r="C215" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D215" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E215" s="16">
+        <v>211</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6825"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">帰国者・接触者相談センター相談件数!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="224">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -780,6 +780,14 @@
   </si>
   <si>
     <t>2020-09-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-09-02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-09-03</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -941,6 +949,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -949,11 +962,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1240,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E215"/>
+  <dimension ref="A1:E217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A215" sqref="A215"/>
+    <sheetView tabSelected="1" topLeftCell="A213" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G216" sqref="G216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1285,7 +1293,7 @@
       <c r="D2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="15" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1302,7 +1310,7 @@
       <c r="D3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -1317,7 +1325,7 @@
       <c r="D4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
@@ -4889,21 +4897,55 @@
         <v>328</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
-      <c r="A215" s="15" t="s">
+    <row r="215" spans="1:5" s="11" customFormat="1">
+      <c r="A215" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="B215" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C215" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D215" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E215" s="16">
+      <c r="B215" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C215" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D215" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E215" s="13">
         <v>211</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" s="11" customFormat="1">
+      <c r="A216" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B216" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C216" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D216" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E216" s="13">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" s="11" customFormat="1">
+      <c r="A217" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B217" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C217" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D217" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E217" s="13">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">帰国者・接触者相談センター相談件数!$A$1:$E$220</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">帰国者・接触者相談センター相談件数!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="227">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -789,6 +790,15 @@
   <si>
     <t>2020-09-03</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-09-04</t>
+  </si>
+  <si>
+    <t>2020-09-05</t>
+  </si>
+  <si>
+    <t>2020-09-06</t>
   </si>
 </sst>
 </file>
@@ -831,7 +841,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -842,12 +852,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF009A2C"/>
         <bgColor rgb="FFDADADA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -928,22 +932,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -954,13 +948,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1248,10 +1242,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E217"/>
+  <dimension ref="A1:E220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G216" sqref="G216"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1280,3672 +1275,3723 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" s="5" customFormat="1">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:5" s="5" customFormat="1">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" s="5" customFormat="1">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" s="5" customFormat="1">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:5" s="5" customFormat="1">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:5" s="5" customFormat="1">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:5" s="5" customFormat="1">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:5" s="5" customFormat="1">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:5" s="5" customFormat="1">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:5" s="5" customFormat="1">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:5" s="5" customFormat="1">
+      <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:5" s="5" customFormat="1">
+      <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:5" s="5" customFormat="1">
+      <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:5" s="5" customFormat="1">
+      <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:5" s="5" customFormat="1">
+      <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:5" s="5" customFormat="1">
+      <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:5" s="5" customFormat="1">
+      <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:5" s="5" customFormat="1">
+      <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:5" s="5" customFormat="1">
+      <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:5" s="5" customFormat="1">
+      <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:5" s="5" customFormat="1">
+      <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:5" s="5" customFormat="1">
+      <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>385</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:5" s="5" customFormat="1">
+      <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>286</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:5" s="5" customFormat="1">
+      <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>380</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:5" s="5" customFormat="1">
+      <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>660</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:5" s="5" customFormat="1">
+      <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:5" s="5" customFormat="1">
+      <c r="A28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>534</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:5" s="5" customFormat="1">
+      <c r="A29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>394</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:5" s="5" customFormat="1">
+      <c r="A30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>281</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:5" s="5" customFormat="1">
+      <c r="A31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>229</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:5" s="5" customFormat="1">
+      <c r="A32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>411</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:5" s="5" customFormat="1">
+      <c r="A33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>280</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:5" s="5" customFormat="1">
+      <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>277</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:5" s="5" customFormat="1">
+      <c r="A35" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>275</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:5" s="5" customFormat="1">
+      <c r="A36" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>301</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:5" s="5" customFormat="1">
+      <c r="A37" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:5" s="5" customFormat="1">
+      <c r="A38" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:5" s="5" customFormat="1">
+      <c r="A39" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="B39" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>355</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:5" s="5" customFormat="1">
+      <c r="A40" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:5" s="5" customFormat="1">
+      <c r="A41" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:5" s="5" customFormat="1">
+      <c r="A42" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:5" s="5" customFormat="1">
+      <c r="A43" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <v>201</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:5" s="5" customFormat="1">
+      <c r="A44" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="B44" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:5" s="5" customFormat="1">
+      <c r="A45" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:5" s="5" customFormat="1">
+      <c r="A46" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="B46" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="2">
         <v>215</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:5" s="5" customFormat="1">
+      <c r="A47" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="B47" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="2">
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:5" s="5" customFormat="1">
+      <c r="A48" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="B48" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="2">
         <v>204</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:5" s="5" customFormat="1">
+      <c r="A49" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="B49" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="2">
         <v>184</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:5" s="5" customFormat="1">
+      <c r="A50" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="B50" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:5" s="5" customFormat="1">
+      <c r="A51" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="B51" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="2">
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:5" s="5" customFormat="1">
+      <c r="A52" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C52" s="3" t="s">
+      <c r="B52" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="2">
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:5" s="5" customFormat="1">
+      <c r="A53" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="B53" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="2">
         <v>179</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:5" s="5" customFormat="1">
+      <c r="A54" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C54" s="3" t="s">
+      <c r="B54" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="2">
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:5" s="5" customFormat="1">
+      <c r="A55" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C55" s="3" t="s">
+      <c r="B55" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="2" t="s">
+    <row r="56" spans="1:5" s="5" customFormat="1">
+      <c r="A56" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="B56" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="2">
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:5" s="5" customFormat="1">
+      <c r="A57" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C57" s="3" t="s">
+      <c r="B57" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="2">
         <v>226</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:5" s="5" customFormat="1">
+      <c r="A58" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C58" s="3" t="s">
+      <c r="B58" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="2">
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:5" s="5" customFormat="1">
+      <c r="A59" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C59" s="3" t="s">
+      <c r="B59" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="2">
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="2" t="s">
+    <row r="60" spans="1:5" s="5" customFormat="1">
+      <c r="A60" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B60" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C60" s="3" t="s">
+      <c r="B60" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="2">
         <v>314</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="2" t="s">
+    <row r="61" spans="1:5" s="5" customFormat="1">
+      <c r="A61" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C61" s="3" t="s">
+      <c r="B61" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="2">
         <v>331</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="2" t="s">
+    <row r="62" spans="1:5" s="5" customFormat="1">
+      <c r="A62" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C62" s="3" t="s">
+      <c r="B62" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="2">
         <v>399</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="2" t="s">
+    <row r="63" spans="1:5" s="5" customFormat="1">
+      <c r="A63" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C63" s="3" t="s">
+      <c r="B63" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="2">
         <v>406</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="2" t="s">
+    <row r="64" spans="1:5" s="5" customFormat="1">
+      <c r="A64" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C64" s="3" t="s">
+      <c r="B64" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="2">
         <v>395</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="2" t="s">
+    <row r="65" spans="1:5" s="5" customFormat="1">
+      <c r="A65" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="B65" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="2">
         <v>308</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="2" t="s">
+    <row r="66" spans="1:5" s="5" customFormat="1">
+      <c r="A66" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C66" s="3" t="s">
+      <c r="B66" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="2">
         <v>331</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="2" t="s">
+    <row r="67" spans="1:5" s="5" customFormat="1">
+      <c r="A67" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C67" s="3" t="s">
+      <c r="B67" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="2">
         <v>550</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="2" t="s">
+    <row r="68" spans="1:5" s="5" customFormat="1">
+      <c r="A68" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C68" s="3" t="s">
+      <c r="B68" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="2">
         <v>402</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="2" t="s">
+    <row r="69" spans="1:5" s="5" customFormat="1">
+      <c r="A69" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C69" s="3" t="s">
+      <c r="B69" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="2">
         <v>433</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="2" t="s">
+    <row r="70" spans="1:5" s="5" customFormat="1">
+      <c r="A70" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C70" s="3" t="s">
+      <c r="B70" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="2">
         <v>463</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="2" t="s">
+    <row r="71" spans="1:5" s="5" customFormat="1">
+      <c r="A71" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C71" s="3" t="s">
+      <c r="B71" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="2">
         <v>430</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="2" t="s">
+    <row r="72" spans="1:5" s="5" customFormat="1">
+      <c r="A72" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C72" s="3" t="s">
+      <c r="B72" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="2">
         <v>343</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="2" t="s">
+    <row r="73" spans="1:5" s="5" customFormat="1">
+      <c r="A73" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C73" s="3" t="s">
+      <c r="B73" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E73" s="2">
         <v>395</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="2" t="s">
+    <row r="74" spans="1:5" s="5" customFormat="1">
+      <c r="A74" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B74" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C74" s="3" t="s">
+      <c r="B74" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74" s="2">
         <v>629</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="2" t="s">
+    <row r="75" spans="1:5" s="5" customFormat="1">
+      <c r="A75" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C75" s="3" t="s">
+      <c r="B75" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75" s="2">
         <v>386</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="2" t="s">
+    <row r="76" spans="1:5" s="5" customFormat="1">
+      <c r="A76" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B76" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C76" s="3" t="s">
+      <c r="B76" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76" s="2">
         <v>463</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="2" t="s">
+    <row r="77" spans="1:5" s="5" customFormat="1">
+      <c r="A77" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B77" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C77" s="3" t="s">
+      <c r="B77" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77" s="2">
         <v>503</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="2" t="s">
+    <row r="78" spans="1:5" s="5" customFormat="1">
+      <c r="A78" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B78" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C78" s="3" t="s">
+      <c r="B78" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78" s="2">
         <v>487</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="2" t="s">
+    <row r="79" spans="1:5" s="5" customFormat="1">
+      <c r="A79" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C79" s="3" t="s">
+      <c r="B79" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79" s="2">
         <v>339</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="2" t="s">
+    <row r="80" spans="1:5" s="5" customFormat="1">
+      <c r="A80" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B80" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C80" s="3" t="s">
+      <c r="B80" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="2">
         <v>275</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="2" t="s">
+    <row r="81" spans="1:5" s="5" customFormat="1">
+      <c r="A81" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B81" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C81" s="3" t="s">
+      <c r="B81" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="2">
         <v>556</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="2" t="s">
+    <row r="82" spans="1:5" s="5" customFormat="1">
+      <c r="A82" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C82" s="3" t="s">
+      <c r="B82" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="2">
         <v>394</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="7" t="s">
+    <row r="83" spans="1:5" s="5" customFormat="1">
+      <c r="A83" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B83" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E83" s="6">
+      <c r="B83" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E83" s="2">
         <v>415</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="2" t="s">
+    <row r="84" spans="1:5" s="5" customFormat="1">
+      <c r="A84" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C84" s="3" t="s">
+      <c r="B84" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E84" s="2">
         <v>446</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="2" t="s">
+    <row r="85" spans="1:5" s="5" customFormat="1">
+      <c r="A85" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C85" s="3" t="s">
+      <c r="B85" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="2">
         <v>394</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="2" t="s">
+    <row r="86" spans="1:5" s="5" customFormat="1">
+      <c r="A86" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C86" s="3" t="s">
+      <c r="B86" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E86" s="2">
         <v>287</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="2" t="s">
+    <row r="87" spans="1:5" s="5" customFormat="1">
+      <c r="A87" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B87" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C87" s="3" t="s">
+      <c r="B87" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E87" s="5">
+      <c r="E87" s="2">
         <v>272</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="2" t="s">
+    <row r="88" spans="1:5" s="5" customFormat="1">
+      <c r="A88" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B88" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C88" s="3" t="s">
+      <c r="B88" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E88" s="5">
+      <c r="E88" s="2">
         <v>421</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="2" t="s">
+    <row r="89" spans="1:5" s="5" customFormat="1">
+      <c r="A89" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B89" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C89" s="3" t="s">
+      <c r="B89" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E89" s="5">
+      <c r="E89" s="2">
         <v>291</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="2" t="s">
+    <row r="90" spans="1:5" s="5" customFormat="1">
+      <c r="A90" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B90" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C90" s="3" t="s">
+      <c r="B90" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E90" s="2">
         <v>233</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="2" t="s">
+    <row r="91" spans="1:5" s="5" customFormat="1">
+      <c r="A91" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B91" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C91" s="3" t="s">
+      <c r="B91" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E91" s="5">
+      <c r="E91" s="2">
         <v>331</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="2" t="s">
+    <row r="92" spans="1:5" s="5" customFormat="1">
+      <c r="A92" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B92" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C92" s="3" t="s">
+      <c r="B92" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E92" s="5">
+      <c r="E92" s="2">
         <v>272</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="2" t="s">
+    <row r="93" spans="1:5" s="5" customFormat="1">
+      <c r="A93" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B93" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C93" s="3" t="s">
+      <c r="B93" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E93" s="5">
+      <c r="E93" s="2">
         <v>189</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="2" t="s">
+    <row r="94" spans="1:5" s="5" customFormat="1">
+      <c r="A94" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B94" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C94" s="3" t="s">
+      <c r="B94" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E94" s="5">
+      <c r="E94" s="2">
         <v>240</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="2" t="s">
+    <row r="95" spans="1:5" s="5" customFormat="1">
+      <c r="A95" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B95" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C95" s="3" t="s">
+      <c r="B95" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E95" s="5">
+      <c r="E95" s="2">
         <v>244</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="2" t="s">
+    <row r="96" spans="1:5" s="5" customFormat="1">
+      <c r="A96" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B96" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C96" s="3" t="s">
+      <c r="B96" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E96" s="5">
+      <c r="E96" s="2">
         <v>217</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="2" t="s">
+    <row r="97" spans="1:5" s="5" customFormat="1">
+      <c r="A97" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B97" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C97" s="3" t="s">
+      <c r="B97" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E97" s="5">
+      <c r="E97" s="2">
         <v>295</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="2" t="s">
+    <row r="98" spans="1:5" s="5" customFormat="1">
+      <c r="A98" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B98" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C98" s="3" t="s">
+      <c r="B98" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E98" s="5">
+      <c r="E98" s="2">
         <v>331</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="2" t="s">
+    <row r="99" spans="1:5" s="5" customFormat="1">
+      <c r="A99" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B99" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C99" s="3" t="s">
+      <c r="B99" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E99" s="5">
+      <c r="E99" s="2">
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="2" t="s">
+    <row r="100" spans="1:5" s="5" customFormat="1">
+      <c r="A100" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B100" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C100" s="3" t="s">
+      <c r="B100" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E100" s="5">
+      <c r="E100" s="2">
         <v>237</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="2" t="s">
+    <row r="101" spans="1:5" s="5" customFormat="1">
+      <c r="A101" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B101" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C101" s="3" t="s">
+      <c r="B101" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E101" s="5">
+      <c r="E101" s="2">
         <v>169</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="2" t="s">
+    <row r="102" spans="1:5" s="5" customFormat="1">
+      <c r="A102" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B102" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C102" s="3" t="s">
+      <c r="B102" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E102" s="5">
+      <c r="E102" s="2">
         <v>279</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="2" t="s">
+    <row r="103" spans="1:5" s="5" customFormat="1">
+      <c r="A103" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B103" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C103" s="3" t="s">
+      <c r="B103" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E103" s="6">
+      <c r="E103" s="2">
         <v>216</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="2" t="s">
+    <row r="104" spans="1:5" s="5" customFormat="1">
+      <c r="A104" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B104" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C104" s="3" t="s">
+      <c r="B104" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E104" s="6">
+      <c r="E104" s="2">
         <v>171</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="2" t="s">
+    <row r="105" spans="1:5" s="5" customFormat="1">
+      <c r="A105" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B105" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C105" s="3" t="s">
+      <c r="B105" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E105" s="6">
+      <c r="E105" s="2">
         <v>188</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="2" t="s">
+    <row r="106" spans="1:5" s="5" customFormat="1">
+      <c r="A106" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B106" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C106" s="3" t="s">
+      <c r="B106" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E106" s="5">
+      <c r="E106" s="2">
         <v>172</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="2" t="s">
+    <row r="107" spans="1:5" s="5" customFormat="1">
+      <c r="A107" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B107" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C107" s="3" t="s">
+      <c r="B107" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E107" s="5">
+      <c r="E107" s="2">
         <v>109</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="2" t="s">
+    <row r="108" spans="1:5" s="5" customFormat="1">
+      <c r="A108" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B108" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C108" s="3" t="s">
+      <c r="B108" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E108" s="5">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="9" t="s">
+      <c r="E108" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" s="5" customFormat="1">
+      <c r="A109" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B109" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D109" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E109" s="5">
+      <c r="B109" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E109" s="2">
         <v>156</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="9" t="s">
+    <row r="110" spans="1:5" s="5" customFormat="1">
+      <c r="A110" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B110" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E110" s="5">
+      <c r="B110" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E110" s="2">
         <v>91</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="9" t="s">
+    <row r="111" spans="1:5" s="5" customFormat="1">
+      <c r="A111" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B111" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E111" s="5">
+      <c r="B111" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E111" s="2">
         <v>87</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="9" t="s">
+    <row r="112" spans="1:5" s="5" customFormat="1">
+      <c r="A112" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B112" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E112" s="5">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="9" t="s">
+      <c r="B112" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E112" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" s="5" customFormat="1">
+      <c r="A113" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B113" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E113" s="5">
+      <c r="B113" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E113" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="9" t="s">
+    <row r="114" spans="1:5" s="5" customFormat="1">
+      <c r="A114" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B114" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D114" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E114" s="5">
+      <c r="B114" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E114" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="9" t="s">
+    <row r="115" spans="1:5" s="5" customFormat="1">
+      <c r="A115" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B115" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E115" s="5">
+      <c r="B115" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E115" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="9" t="s">
+    <row r="116" spans="1:5" s="5" customFormat="1">
+      <c r="A116" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B116" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E116" s="6">
+      <c r="B116" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E116" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="9" t="s">
+    <row r="117" spans="1:5" s="5" customFormat="1">
+      <c r="A117" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B117" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E117" s="6">
+      <c r="B117" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E117" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="9" t="s">
+    <row r="118" spans="1:5" s="5" customFormat="1">
+      <c r="A118" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B118" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D118" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E118" s="5">
+      <c r="B118" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E118" s="2">
         <v>89</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="9" t="s">
+    <row r="119" spans="1:5" s="5" customFormat="1">
+      <c r="A119" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B119" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E119" s="5">
+      <c r="B119" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E119" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="9" t="s">
+    <row r="120" spans="1:5" s="5" customFormat="1">
+      <c r="A120" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B120" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D120" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E120" s="6">
+      <c r="B120" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E120" s="2">
         <v>105</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="9" t="s">
+    <row r="121" spans="1:5" s="5" customFormat="1">
+      <c r="A121" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B121" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E121" s="5">
+      <c r="B121" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E121" s="2">
         <v>68</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="9" t="s">
+    <row r="122" spans="1:5" s="5" customFormat="1">
+      <c r="A122" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B122" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E122" s="5">
+      <c r="B122" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E122" s="2">
         <v>91</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="9" t="s">
+    <row r="123" spans="1:5" s="5" customFormat="1">
+      <c r="A123" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B123" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E123" s="5">
+      <c r="B123" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E123" s="2">
         <v>149</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="9" t="s">
+    <row r="124" spans="1:5" s="5" customFormat="1">
+      <c r="A124" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B124" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D124" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E124" s="5">
+      <c r="B124" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E124" s="2">
         <v>108</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="9" t="s">
+    <row r="125" spans="1:5" s="5" customFormat="1">
+      <c r="A125" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B125" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E125" s="5">
+      <c r="B125" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E125" s="2">
         <v>131</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="9" t="s">
+    <row r="126" spans="1:5" s="5" customFormat="1">
+      <c r="A126" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B126" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E126" s="5">
+      <c r="B126" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E126" s="2">
         <v>133</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="9" t="s">
+    <row r="127" spans="1:5" s="5" customFormat="1">
+      <c r="A127" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B127" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E127" s="3">
+      <c r="B127" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E127" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="9" t="s">
+    <row r="128" spans="1:5" s="5" customFormat="1">
+      <c r="A128" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B128" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E128" s="5">
+      <c r="B128" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E128" s="2">
         <v>86</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="9" t="s">
+    <row r="129" spans="1:5" s="5" customFormat="1">
+      <c r="A129" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B129" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E129" s="6">
+      <c r="B129" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E129" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="9" t="s">
+    <row r="130" spans="1:5" s="5" customFormat="1">
+      <c r="A130" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B130" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D130" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E130" s="5">
+      <c r="B130" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E130" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="9" t="s">
+    <row r="131" spans="1:5" s="5" customFormat="1">
+      <c r="A131" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B131" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D131" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E131" s="5">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="9" t="s">
+      <c r="B131" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E131" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" s="5" customFormat="1">
+      <c r="A132" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B132" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D132" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E132" s="5">
+      <c r="B132" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E132" s="2">
         <v>105</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="9" t="s">
+    <row r="133" spans="1:5" s="5" customFormat="1">
+      <c r="A133" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B133" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D133" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E133" s="5">
+      <c r="B133" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E133" s="2">
         <v>86</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="9" t="s">
+    <row r="134" spans="1:5" s="5" customFormat="1">
+      <c r="A134" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B134" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D134" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E134" s="3">
+      <c r="B134" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E134" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="9" t="s">
+    <row r="135" spans="1:5" s="5" customFormat="1">
+      <c r="A135" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B135" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D135" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E135" s="3">
+      <c r="B135" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E135" s="2">
         <v>61</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="9" t="s">
+    <row r="136" spans="1:5" s="5" customFormat="1">
+      <c r="A136" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B136" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E136" s="3">
+      <c r="B136" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E136" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="9" t="s">
+    <row r="137" spans="1:5" s="5" customFormat="1">
+      <c r="A137" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B137" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D137" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E137" s="5">
+      <c r="B137" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E137" s="2">
         <v>89</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="9" t="s">
+    <row r="138" spans="1:5" s="5" customFormat="1">
+      <c r="A138" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B138" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D138" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E138" s="5">
+      <c r="B138" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E138" s="2">
         <v>67</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="9" t="s">
+    <row r="139" spans="1:5" s="5" customFormat="1">
+      <c r="A139" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B139" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E139" s="5">
+      <c r="B139" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E139" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="9" t="s">
+    <row r="140" spans="1:5" s="5" customFormat="1">
+      <c r="A140" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B140" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E140" s="5">
+      <c r="B140" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E140" s="2">
         <v>91</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="9" t="s">
+    <row r="141" spans="1:5" s="5" customFormat="1">
+      <c r="A141" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B141" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D141" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E141" s="5">
+      <c r="B141" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E141" s="2">
         <v>48</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="9" t="s">
+    <row r="142" spans="1:5" s="5" customFormat="1">
+      <c r="A142" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B142" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D142" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E142" s="5">
+      <c r="B142" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E142" s="2">
         <v>52</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="9" t="s">
+    <row r="143" spans="1:5" s="5" customFormat="1">
+      <c r="A143" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B143" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D143" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E143" s="5">
+      <c r="B143" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E143" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="9" t="s">
+    <row r="144" spans="1:5" s="5" customFormat="1">
+      <c r="A144" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B144" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D144" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E144" s="5">
+      <c r="B144" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E144" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="9" t="s">
+    <row r="145" spans="1:5" s="5" customFormat="1">
+      <c r="A145" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B145" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D145" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E145" s="5">
+      <c r="B145" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E145" s="2">
         <v>97</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="9" t="s">
+    <row r="146" spans="1:5" s="5" customFormat="1">
+      <c r="A146" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B146" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D146" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E146" s="5">
+      <c r="B146" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E146" s="2">
         <v>117</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="9" t="s">
+    <row r="147" spans="1:5" s="5" customFormat="1">
+      <c r="A147" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B147" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D147" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E147" s="5">
+      <c r="B147" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E147" s="2">
         <v>104</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="9" t="s">
+    <row r="148" spans="1:5" s="5" customFormat="1">
+      <c r="A148" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B148" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D148" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E148" s="5">
+      <c r="B148" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E148" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="9" t="s">
+    <row r="149" spans="1:5" s="5" customFormat="1">
+      <c r="A149" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B149" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D149" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E149" s="5">
+      <c r="B149" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E149" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="9" t="s">
+    <row r="150" spans="1:5" s="5" customFormat="1">
+      <c r="A150" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B150" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D150" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E150" s="5">
+      <c r="B150" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E150" s="2">
         <v>55</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="9" t="s">
+    <row r="151" spans="1:5" s="5" customFormat="1">
+      <c r="A151" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B151" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D151" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E151" s="5">
+      <c r="B151" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E151" s="2">
         <v>129</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="9" t="s">
+    <row r="152" spans="1:5" s="5" customFormat="1">
+      <c r="A152" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B152" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D152" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E152" s="5">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="9" t="s">
+      <c r="B152" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E152" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" s="5" customFormat="1">
+      <c r="A153" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B153" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D153" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E153" s="5">
+      <c r="B153" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E153" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="9" t="s">
+    <row r="154" spans="1:5" s="5" customFormat="1">
+      <c r="A154" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B154" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D154" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E154" s="6">
+      <c r="B154" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E154" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="9" t="s">
+    <row r="155" spans="1:5" s="5" customFormat="1">
+      <c r="A155" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B155" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D155" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E155" s="5">
+      <c r="B155" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E155" s="2">
         <v>104</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="9" t="s">
+    <row r="156" spans="1:5" s="5" customFormat="1">
+      <c r="A156" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B156" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D156" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E156" s="5">
+      <c r="B156" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E156" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="9" t="s">
+    <row r="157" spans="1:5" s="5" customFormat="1">
+      <c r="A157" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B157" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D157" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E157" s="5">
+      <c r="B157" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E157" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="9" t="s">
+    <row r="158" spans="1:5" s="5" customFormat="1">
+      <c r="A158" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B158" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D158" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E158" s="6">
+      <c r="B158" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E158" s="2">
         <v>122</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="9" t="s">
+    <row r="159" spans="1:5" s="5" customFormat="1">
+      <c r="A159" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B159" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D159" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E159" s="6">
+      <c r="B159" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E159" s="2">
         <v>101</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
-      <c r="A160" s="9" t="s">
+    <row r="160" spans="1:5" s="5" customFormat="1">
+      <c r="A160" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B160" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D160" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E160" s="6">
+      <c r="B160" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E160" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="9" t="s">
+    <row r="161" spans="1:5" s="5" customFormat="1">
+      <c r="A161" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B161" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D161" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E161" s="6">
+      <c r="B161" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E161" s="2">
         <v>98</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
-      <c r="A162" s="9" t="s">
+    <row r="162" spans="1:5" s="5" customFormat="1">
+      <c r="A162" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B162" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D162" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E162" s="6">
+      <c r="B162" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E162" s="2">
         <v>91</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
-      <c r="A163" s="9" t="s">
+    <row r="163" spans="1:5" s="5" customFormat="1">
+      <c r="A163" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B163" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D163" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E163" s="6">
+      <c r="B163" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E163" s="2">
         <v>65</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="9" t="s">
+    <row r="164" spans="1:5" s="5" customFormat="1">
+      <c r="A164" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B164" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D164" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E164" s="6">
+      <c r="B164" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E164" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
-      <c r="A165" s="9" t="s">
+    <row r="165" spans="1:5" s="5" customFormat="1">
+      <c r="A165" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B165" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D165" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E165" s="5">
+      <c r="B165" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E165" s="2">
         <v>157</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
-      <c r="A166" s="9" t="s">
+    <row r="166" spans="1:5" s="5" customFormat="1">
+      <c r="A166" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B166" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D166" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E166" s="5">
+      <c r="B166" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E166" s="2">
         <v>112</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="9" t="s">
+    <row r="167" spans="1:5" s="5" customFormat="1">
+      <c r="A167" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B167" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D167" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E167" s="5">
+      <c r="B167" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E167" s="2">
         <v>128</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
-      <c r="A168" s="9" t="s">
+    <row r="168" spans="1:5" s="5" customFormat="1">
+      <c r="A168" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B168" s="3">
-        <v>430005</v>
-      </c>
-      <c r="C168" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D168" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E168" s="5">
+      <c r="B168" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E168" s="2">
         <v>125</v>
       </c>
     </row>
-    <row r="169" spans="1:5" s="11" customFormat="1">
-      <c r="A169" s="9" t="s">
+    <row r="169" spans="1:5" s="5" customFormat="1">
+      <c r="A169" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B169" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D169" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E169" s="5">
+      <c r="B169" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E169" s="2">
         <v>127</v>
       </c>
     </row>
-    <row r="170" spans="1:5" s="11" customFormat="1">
-      <c r="A170" s="9" t="s">
+    <row r="170" spans="1:5" s="5" customFormat="1">
+      <c r="A170" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B170" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D170" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E170" s="5">
+      <c r="B170" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E170" s="2">
         <v>88</v>
       </c>
     </row>
-    <row r="171" spans="1:5" s="11" customFormat="1">
-      <c r="A171" s="9" t="s">
+    <row r="171" spans="1:5" s="5" customFormat="1">
+      <c r="A171" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B171" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D171" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E171" s="5">
+      <c r="B171" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E171" s="2">
         <v>119</v>
       </c>
     </row>
-    <row r="172" spans="1:5" s="11" customFormat="1">
-      <c r="A172" s="9" t="s">
+    <row r="172" spans="1:5" s="5" customFormat="1">
+      <c r="A172" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B172" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D172" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E172" s="5">
+      <c r="B172" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E172" s="2">
         <v>172</v>
       </c>
     </row>
-    <row r="173" spans="1:5" s="11" customFormat="1">
-      <c r="A173" s="9" t="s">
+    <row r="173" spans="1:5" s="5" customFormat="1">
+      <c r="A173" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B173" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D173" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E173" s="5">
+      <c r="B173" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E173" s="2">
         <v>136</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
-      <c r="A174" s="9" t="s">
+    <row r="174" spans="1:5" s="5" customFormat="1">
+      <c r="A174" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B174" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D174" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E174" s="3">
+      <c r="B174" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E174" s="2">
         <v>175</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="9" t="s">
+    <row r="175" spans="1:5" s="5" customFormat="1">
+      <c r="A175" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B175" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D175" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E175" s="3">
+      <c r="B175" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E175" s="2">
         <v>176</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
-      <c r="A176" s="9" t="s">
+    <row r="176" spans="1:5" s="5" customFormat="1">
+      <c r="A176" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B176" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D176" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E176" s="3">
+      <c r="B176" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E176" s="2">
         <v>201</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
-      <c r="A177" s="9" t="s">
+    <row r="177" spans="1:5" s="5" customFormat="1">
+      <c r="A177" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B177" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D177" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E177" s="3">
+      <c r="B177" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E177" s="2">
         <v>194</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
-      <c r="A178" s="9" t="s">
+    <row r="178" spans="1:5" s="5" customFormat="1">
+      <c r="A178" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B178" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D178" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E178" s="3">
+      <c r="B178" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E178" s="2">
         <v>233</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
-      <c r="A179" s="9" t="s">
+    <row r="179" spans="1:5" s="5" customFormat="1">
+      <c r="A179" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B179" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D179" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E179" s="3">
+      <c r="B179" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E179" s="2">
         <v>508</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
-      <c r="A180" s="9" t="s">
+    <row r="180" spans="1:5" s="5" customFormat="1">
+      <c r="A180" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B180" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D180" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E180" s="3">
+      <c r="B180" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E180" s="2">
         <v>484</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="9" t="s">
+    <row r="181" spans="1:5" s="5" customFormat="1">
+      <c r="A181" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B181" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D181" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E181" s="3">
+      <c r="B181" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E181" s="2">
         <v>376</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="9" t="s">
+    <row r="182" spans="1:5" s="5" customFormat="1">
+      <c r="A182" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B182" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D182" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E182" s="3">
+      <c r="B182" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E182" s="2">
         <v>423</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
-      <c r="A183" s="9" t="s">
+    <row r="183" spans="1:5" s="5" customFormat="1">
+      <c r="A183" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B183" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D183" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E183" s="3">
+      <c r="B183" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E183" s="2">
         <v>368</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
-      <c r="A184" s="9" t="s">
+    <row r="184" spans="1:5" s="5" customFormat="1">
+      <c r="A184" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B184" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D184" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E184" s="3">
+      <c r="B184" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E184" s="2">
         <v>260</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
-      <c r="A185" s="9" t="s">
+    <row r="185" spans="1:5" s="5" customFormat="1">
+      <c r="A185" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B185" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D185" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E185" s="3">
+      <c r="B185" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E185" s="2">
         <v>173</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
-      <c r="A186" s="9" t="s">
+    <row r="186" spans="1:5" s="5" customFormat="1">
+      <c r="A186" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B186" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D186" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E186" s="3">
+      <c r="B186" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E186" s="2">
         <v>141</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
-      <c r="A187" s="9" t="s">
+    <row r="187" spans="1:5" s="5" customFormat="1">
+      <c r="A187" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B187" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D187" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E187" s="3">
+      <c r="B187" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E187" s="2">
         <v>384</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
-      <c r="A188" s="9" t="s">
+    <row r="188" spans="1:5" s="5" customFormat="1">
+      <c r="A188" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B188" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D188" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E188" s="3">
+      <c r="B188" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E188" s="2">
         <v>459</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
-      <c r="A189" s="9" t="s">
+    <row r="189" spans="1:5" s="5" customFormat="1">
+      <c r="A189" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B189" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D189" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E189" s="3">
+      <c r="B189" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E189" s="2">
         <v>428</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
-      <c r="A190" s="9" t="s">
+    <row r="190" spans="1:5" s="5" customFormat="1">
+      <c r="A190" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B190" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D190" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E190" s="3">
+      <c r="B190" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E190" s="2">
         <v>350</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
-      <c r="A191" s="9" t="s">
+    <row r="191" spans="1:5" s="5" customFormat="1">
+      <c r="A191" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B191" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C191" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D191" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E191" s="3">
+      <c r="B191" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E191" s="2">
         <v>268</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
-      <c r="A192" s="9" t="s">
+    <row r="192" spans="1:5" s="5" customFormat="1">
+      <c r="A192" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B192" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C192" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D192" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E192" s="3">
+      <c r="B192" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E192" s="2">
         <v>211</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
-      <c r="A193" s="9" t="s">
+    <row r="193" spans="1:5" s="5" customFormat="1">
+      <c r="A193" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B193" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C193" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D193" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E193" s="3">
+      <c r="B193" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E193" s="2">
         <v>292</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
-      <c r="A194" s="9" t="s">
+    <row r="194" spans="1:5" s="5" customFormat="1">
+      <c r="A194" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B194" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C194" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D194" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E194" s="3">
+      <c r="B194" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E194" s="2">
         <v>284</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
-      <c r="A195" s="9" t="s">
+    <row r="195" spans="1:5" s="5" customFormat="1">
+      <c r="A195" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B195" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C195" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D195" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E195" s="3">
+      <c r="B195" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E195" s="2">
         <v>263</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="9" t="s">
+    <row r="196" spans="1:5" s="5" customFormat="1">
+      <c r="A196" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B196" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C196" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D196" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E196" s="3">
+      <c r="B196" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E196" s="2">
         <v>298</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
-      <c r="A197" s="9" t="s">
+    <row r="197" spans="1:5" s="5" customFormat="1">
+      <c r="A197" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B197" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D197" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E197" s="3">
+      <c r="B197" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E197" s="2">
         <v>347</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
-      <c r="A198" s="9" t="s">
+    <row r="198" spans="1:5" s="5" customFormat="1">
+      <c r="A198" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B198" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C198" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D198" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E198" s="3">
+      <c r="B198" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E198" s="2">
         <v>254</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
-      <c r="A199" s="9" t="s">
+    <row r="199" spans="1:5" s="5" customFormat="1">
+      <c r="A199" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B199" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D199" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E199" s="3">
+      <c r="B199" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E199" s="2">
         <v>267</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
-      <c r="A200" s="9" t="s">
+    <row r="200" spans="1:5" s="5" customFormat="1">
+      <c r="A200" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B200" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C200" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D200" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E200" s="3">
+      <c r="B200" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E200" s="2">
         <v>427</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
-      <c r="A201" s="9" t="s">
+    <row r="201" spans="1:5" s="5" customFormat="1">
+      <c r="A201" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B201" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C201" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D201" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E201" s="3">
+      <c r="B201" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E201" s="2">
         <v>306</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
-      <c r="A202" s="9" t="s">
+    <row r="202" spans="1:5" s="5" customFormat="1">
+      <c r="A202" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B202" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C202" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D202" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E202" s="3">
+      <c r="B202" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E202" s="2">
         <v>277</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
-      <c r="A203" s="9" t="s">
+    <row r="203" spans="1:5" s="5" customFormat="1">
+      <c r="A203" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B203" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C203" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D203" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E203" s="3">
+      <c r="B203" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E203" s="2">
         <v>283</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
-      <c r="A204" s="9" t="s">
+    <row r="204" spans="1:5" s="5" customFormat="1">
+      <c r="A204" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B204" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C204" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D204" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E204" s="3">
+      <c r="B204" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E204" s="2">
         <v>254</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
-      <c r="A205" s="9" t="s">
+    <row r="205" spans="1:5" s="5" customFormat="1">
+      <c r="A205" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B205" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C205" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D205" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E205" s="3">
+      <c r="B205" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E205" s="2">
         <v>245</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
-      <c r="A206" s="9" t="s">
+    <row r="206" spans="1:5" s="5" customFormat="1">
+      <c r="A206" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B206" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C206" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D206" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E206" s="3">
+      <c r="B206" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E206" s="2">
         <v>154</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
-      <c r="A207" s="9" t="s">
+    <row r="207" spans="1:5" s="5" customFormat="1">
+      <c r="A207" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B207" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C207" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D207" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E207" s="5">
+      <c r="B207" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E207" s="2">
         <v>285</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
-      <c r="A208" s="9" t="s">
+    <row r="208" spans="1:5" s="5" customFormat="1">
+      <c r="A208" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B208" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C208" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D208" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E208" s="5">
+      <c r="B208" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E208" s="2">
         <v>253</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
-      <c r="A209" s="9" t="s">
+    <row r="209" spans="1:5" s="5" customFormat="1">
+      <c r="A209" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B209" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C209" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D209" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E209" s="5">
+      <c r="B209" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E209" s="2">
         <v>235</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
-      <c r="A210" s="9" t="s">
+    <row r="210" spans="1:5" s="5" customFormat="1">
+      <c r="A210" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B210" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C210" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D210" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E210" s="5">
+      <c r="B210" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E210" s="2">
         <v>251</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
-      <c r="A211" s="9" t="s">
+    <row r="211" spans="1:5" s="5" customFormat="1">
+      <c r="A211" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B211" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C211" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D211" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E211" s="5">
+      <c r="B211" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E211" s="2">
         <v>235</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
-      <c r="A212" s="9" t="s">
+    <row r="212" spans="1:5" s="5" customFormat="1">
+      <c r="A212" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B212" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C212" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D212" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E212" s="5">
+      <c r="B212" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E212" s="2">
         <v>170</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
-      <c r="A213" s="9" t="s">
+    <row r="213" spans="1:5" s="5" customFormat="1">
+      <c r="A213" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B213" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C213" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D213" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E213" s="5">
+      <c r="B213" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E213" s="2">
         <v>135</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
-      <c r="A214" s="9" t="s">
+    <row r="214" spans="1:5" s="5" customFormat="1">
+      <c r="A214" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B214" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C214" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D214" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E214" s="5">
+      <c r="B214" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E214" s="2">
         <v>328</v>
       </c>
     </row>
-    <row r="215" spans="1:5" s="11" customFormat="1">
-      <c r="A215" s="12" t="s">
+    <row r="215" spans="1:5" s="5" customFormat="1">
+      <c r="A215" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B215" s="13">
-        <v>430005</v>
-      </c>
-      <c r="C215" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D215" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E215" s="13">
+      <c r="B215" s="7">
+        <v>430005</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E215" s="7">
         <v>211</v>
       </c>
     </row>
-    <row r="216" spans="1:5" s="11" customFormat="1">
-      <c r="A216" s="12" t="s">
+    <row r="216" spans="1:5" s="5" customFormat="1">
+      <c r="A216" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B216" s="13">
-        <v>430005</v>
-      </c>
-      <c r="C216" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D216" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E216" s="13">
+      <c r="B216" s="7">
+        <v>430005</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E216" s="7">
         <v>226</v>
       </c>
     </row>
-    <row r="217" spans="1:5" s="11" customFormat="1">
-      <c r="A217" s="12" t="s">
+    <row r="217" spans="1:5" s="5" customFormat="1">
+      <c r="A217" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B217" s="13">
-        <v>430005</v>
-      </c>
-      <c r="C217" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D217" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E217" s="13">
+      <c r="B217" s="7">
+        <v>430005</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D217" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E217" s="7">
         <v>178</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" s="5" customFormat="1">
+      <c r="A218" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B218" s="7">
+        <v>430005</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D218" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E218" s="7">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" s="5" customFormat="1">
+      <c r="A219" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B219" s="7">
+        <v>430005</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D219" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E219" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" s="5" customFormat="1">
+      <c r="A220" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B220" s="7">
+        <v>430005</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D220" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E220" s="7">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="228">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -799,6 +799,9 @@
   </si>
   <si>
     <t>2020-09-06</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
   </si>
 </sst>
 </file>
@@ -841,7 +844,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -852,6 +855,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF009A2C"/>
         <bgColor rgb="FFDADADA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -932,12 +941,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -948,15 +967,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1242,11 +1267,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E220"/>
+  <dimension ref="A1:E222"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G214" sqref="G214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1275,3724 +1300,3748 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="5" customFormat="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" s="5" customFormat="1">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" s="5" customFormat="1">
-      <c r="A5" s="3" t="s">
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="5" customFormat="1">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="5" customFormat="1">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="5" customFormat="1">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="5" customFormat="1">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="5" customFormat="1">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="5" customFormat="1">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="5" customFormat="1">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="5" customFormat="1">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="5" customFormat="1">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="5" customFormat="1">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="5" customFormat="1">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="5" customFormat="1">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="5" customFormat="1">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="5" customFormat="1">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="5" customFormat="1">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="3">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="5" customFormat="1">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="5" customFormat="1">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="5" customFormat="1">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="3">
         <v>385</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="5" customFormat="1">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="3">
         <v>286</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="5" customFormat="1">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="3">
         <v>380</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="5" customFormat="1">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="3">
         <v>660</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="5" customFormat="1">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="3">
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="5" customFormat="1">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="3">
         <v>534</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="5" customFormat="1">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="3">
         <v>394</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="5" customFormat="1">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="3">
         <v>281</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="5" customFormat="1">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="3">
         <v>229</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="5" customFormat="1">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="3">
         <v>411</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="5" customFormat="1">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B33" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="3">
         <v>280</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="5" customFormat="1">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="B34" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="3">
         <v>277</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="5" customFormat="1">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="3">
         <v>275</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="5" customFormat="1">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="B36" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="3">
         <v>301</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="5" customFormat="1">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="5" customFormat="1">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="3">
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="5" customFormat="1">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:5">
+      <c r="A39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="B39" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="3">
         <v>355</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="5" customFormat="1">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:5">
+      <c r="A40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="3">
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="5" customFormat="1">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:5">
+      <c r="A41" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="B41" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="3">
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="5" customFormat="1">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:5">
+      <c r="A42" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="B42" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="3">
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="5" customFormat="1">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:5">
+      <c r="A43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="B43" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="5" customFormat="1">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:5">
+      <c r="A44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="B44" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="3">
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="5" customFormat="1">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:5">
+      <c r="A45" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="B45" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="5" customFormat="1">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:5">
+      <c r="A46" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="B46" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="3">
         <v>215</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="5" customFormat="1">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:5">
+      <c r="A47" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="B47" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="3">
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="5" customFormat="1">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:5">
+      <c r="A48" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="B48" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="3">
         <v>204</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="5" customFormat="1">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:5">
+      <c r="A49" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C49" s="2" t="s">
+      <c r="B49" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="3">
         <v>184</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="5" customFormat="1">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:5">
+      <c r="A50" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="B50" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="3">
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="5" customFormat="1">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:5">
+      <c r="A51" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="B51" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="5" customFormat="1">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:5">
+      <c r="A52" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="B52" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="3">
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="5" customFormat="1">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:5">
+      <c r="A53" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="B53" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="3">
         <v>179</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="5" customFormat="1">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:5">
+      <c r="A54" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="B54" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="3">
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="5" customFormat="1">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:5">
+      <c r="A55" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="B55" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="3">
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="5" customFormat="1">
-      <c r="A56" s="3" t="s">
+    <row r="56" spans="1:5">
+      <c r="A56" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="B56" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="3">
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="5" customFormat="1">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="1:5">
+      <c r="A57" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="B57" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="3">
         <v>226</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="5" customFormat="1">
-      <c r="A58" s="3" t="s">
+    <row r="58" spans="1:5">
+      <c r="A58" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="B58" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="3">
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="5" customFormat="1">
-      <c r="A59" s="3" t="s">
+    <row r="59" spans="1:5">
+      <c r="A59" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="B59" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="3">
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="5" customFormat="1">
-      <c r="A60" s="3" t="s">
+    <row r="60" spans="1:5">
+      <c r="A60" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B60" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="B60" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="3">
         <v>314</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="5" customFormat="1">
-      <c r="A61" s="3" t="s">
+    <row r="61" spans="1:5">
+      <c r="A61" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="B61" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="3">
         <v>331</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="5" customFormat="1">
-      <c r="A62" s="3" t="s">
+    <row r="62" spans="1:5">
+      <c r="A62" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="B62" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="3">
         <v>399</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="5" customFormat="1">
-      <c r="A63" s="3" t="s">
+    <row r="63" spans="1:5">
+      <c r="A63" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="B63" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="3">
         <v>406</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="5" customFormat="1">
-      <c r="A64" s="3" t="s">
+    <row r="64" spans="1:5">
+      <c r="A64" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C64" s="2" t="s">
+      <c r="B64" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="3">
         <v>395</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="5" customFormat="1">
-      <c r="A65" s="3" t="s">
+    <row r="65" spans="1:5">
+      <c r="A65" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C65" s="2" t="s">
+      <c r="B65" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="3">
         <v>308</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="5" customFormat="1">
-      <c r="A66" s="3" t="s">
+    <row r="66" spans="1:5">
+      <c r="A66" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C66" s="2" t="s">
+      <c r="B66" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="3">
         <v>331</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="5" customFormat="1">
-      <c r="A67" s="3" t="s">
+    <row r="67" spans="1:5">
+      <c r="A67" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C67" s="2" t="s">
+      <c r="B67" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="3">
         <v>550</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="5" customFormat="1">
-      <c r="A68" s="3" t="s">
+    <row r="68" spans="1:5">
+      <c r="A68" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C68" s="2" t="s">
+      <c r="B68" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="3">
         <v>402</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="5" customFormat="1">
-      <c r="A69" s="3" t="s">
+    <row r="69" spans="1:5">
+      <c r="A69" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C69" s="2" t="s">
+      <c r="B69" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="3">
         <v>433</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="5" customFormat="1">
-      <c r="A70" s="3" t="s">
+    <row r="70" spans="1:5">
+      <c r="A70" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C70" s="2" t="s">
+      <c r="B70" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="3">
         <v>463</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="5" customFormat="1">
-      <c r="A71" s="3" t="s">
+    <row r="71" spans="1:5">
+      <c r="A71" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C71" s="2" t="s">
+      <c r="B71" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="3">
         <v>430</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="5" customFormat="1">
-      <c r="A72" s="3" t="s">
+    <row r="72" spans="1:5">
+      <c r="A72" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C72" s="2" t="s">
+      <c r="B72" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="3">
         <v>343</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="5" customFormat="1">
-      <c r="A73" s="3" t="s">
+    <row r="73" spans="1:5">
+      <c r="A73" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="B73" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="6">
         <v>395</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="5" customFormat="1">
-      <c r="A74" s="3" t="s">
+    <row r="74" spans="1:5">
+      <c r="A74" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B74" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C74" s="2" t="s">
+      <c r="B74" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="6">
         <v>629</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="5" customFormat="1">
-      <c r="A75" s="3" t="s">
+    <row r="75" spans="1:5">
+      <c r="A75" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C75" s="2" t="s">
+      <c r="B75" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="6">
         <v>386</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="5" customFormat="1">
-      <c r="A76" s="3" t="s">
+    <row r="76" spans="1:5">
+      <c r="A76" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B76" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C76" s="2" t="s">
+      <c r="B76" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="6">
         <v>463</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="5" customFormat="1">
-      <c r="A77" s="3" t="s">
+    <row r="77" spans="1:5">
+      <c r="A77" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B77" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C77" s="2" t="s">
+      <c r="B77" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="6">
         <v>503</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="5" customFormat="1">
-      <c r="A78" s="3" t="s">
+    <row r="78" spans="1:5">
+      <c r="A78" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B78" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C78" s="2" t="s">
+      <c r="B78" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="5">
         <v>487</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="5" customFormat="1">
-      <c r="A79" s="3" t="s">
+    <row r="79" spans="1:5">
+      <c r="A79" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C79" s="2" t="s">
+      <c r="B79" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="5">
         <v>339</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="5" customFormat="1">
-      <c r="A80" s="3" t="s">
+    <row r="80" spans="1:5">
+      <c r="A80" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B80" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C80" s="2" t="s">
+      <c r="B80" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="3">
         <v>275</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="5" customFormat="1">
-      <c r="A81" s="3" t="s">
+    <row r="81" spans="1:5">
+      <c r="A81" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B81" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C81" s="2" t="s">
+      <c r="B81" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="3">
         <v>556</v>
       </c>
     </row>
-    <row r="82" spans="1:5" s="5" customFormat="1">
-      <c r="A82" s="3" t="s">
+    <row r="82" spans="1:5">
+      <c r="A82" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C82" s="2" t="s">
+      <c r="B82" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="3">
         <v>394</v>
       </c>
     </row>
-    <row r="83" spans="1:5" s="5" customFormat="1">
-      <c r="A83" s="3" t="s">
+    <row r="83" spans="1:5">
+      <c r="A83" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B83" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E83" s="2">
+      <c r="B83" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E83" s="6">
         <v>415</v>
       </c>
     </row>
-    <row r="84" spans="1:5" s="5" customFormat="1">
-      <c r="A84" s="3" t="s">
+    <row r="84" spans="1:5">
+      <c r="A84" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C84" s="2" t="s">
+      <c r="B84" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="6">
         <v>446</v>
       </c>
     </row>
-    <row r="85" spans="1:5" s="5" customFormat="1">
-      <c r="A85" s="3" t="s">
+    <row r="85" spans="1:5">
+      <c r="A85" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C85" s="2" t="s">
+      <c r="B85" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="6">
         <v>394</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="5" customFormat="1">
-      <c r="A86" s="3" t="s">
+    <row r="86" spans="1:5">
+      <c r="A86" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C86" s="2" t="s">
+      <c r="B86" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="5">
         <v>287</v>
       </c>
     </row>
-    <row r="87" spans="1:5" s="5" customFormat="1">
-      <c r="A87" s="3" t="s">
+    <row r="87" spans="1:5">
+      <c r="A87" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B87" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C87" s="2" t="s">
+      <c r="B87" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="5">
         <v>272</v>
       </c>
     </row>
-    <row r="88" spans="1:5" s="5" customFormat="1">
-      <c r="A88" s="3" t="s">
+    <row r="88" spans="1:5">
+      <c r="A88" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B88" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C88" s="2" t="s">
+      <c r="B88" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="5">
         <v>421</v>
       </c>
     </row>
-    <row r="89" spans="1:5" s="5" customFormat="1">
-      <c r="A89" s="3" t="s">
+    <row r="89" spans="1:5">
+      <c r="A89" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B89" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C89" s="2" t="s">
+      <c r="B89" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="5">
         <v>291</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="5" customFormat="1">
-      <c r="A90" s="3" t="s">
+    <row r="90" spans="1:5">
+      <c r="A90" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B90" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C90" s="2" t="s">
+      <c r="B90" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="5">
         <v>233</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="5" customFormat="1">
-      <c r="A91" s="3" t="s">
+    <row r="91" spans="1:5">
+      <c r="A91" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B91" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C91" s="2" t="s">
+      <c r="B91" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="5">
         <v>331</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="5" customFormat="1">
-      <c r="A92" s="3" t="s">
+    <row r="92" spans="1:5">
+      <c r="A92" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B92" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C92" s="2" t="s">
+      <c r="B92" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="5">
         <v>272</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="5" customFormat="1">
-      <c r="A93" s="3" t="s">
+    <row r="93" spans="1:5">
+      <c r="A93" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B93" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C93" s="2" t="s">
+      <c r="B93" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="5">
         <v>189</v>
       </c>
     </row>
-    <row r="94" spans="1:5" s="5" customFormat="1">
-      <c r="A94" s="3" t="s">
+    <row r="94" spans="1:5">
+      <c r="A94" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B94" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C94" s="2" t="s">
+      <c r="B94" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="5">
         <v>240</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="5" customFormat="1">
-      <c r="A95" s="3" t="s">
+    <row r="95" spans="1:5">
+      <c r="A95" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B95" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C95" s="2" t="s">
+      <c r="B95" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95" s="5">
         <v>244</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="5" customFormat="1">
-      <c r="A96" s="3" t="s">
+    <row r="96" spans="1:5">
+      <c r="A96" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B96" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C96" s="2" t="s">
+      <c r="B96" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="5">
         <v>217</v>
       </c>
     </row>
-    <row r="97" spans="1:5" s="5" customFormat="1">
-      <c r="A97" s="3" t="s">
+    <row r="97" spans="1:5">
+      <c r="A97" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B97" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C97" s="2" t="s">
+      <c r="B97" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="5">
         <v>295</v>
       </c>
     </row>
-    <row r="98" spans="1:5" s="5" customFormat="1">
-      <c r="A98" s="3" t="s">
+    <row r="98" spans="1:5">
+      <c r="A98" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B98" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C98" s="2" t="s">
+      <c r="B98" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="5">
         <v>331</v>
       </c>
     </row>
-    <row r="99" spans="1:5" s="5" customFormat="1">
-      <c r="A99" s="3" t="s">
+    <row r="99" spans="1:5">
+      <c r="A99" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B99" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C99" s="2" t="s">
+      <c r="B99" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99" s="5">
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="1:5" s="5" customFormat="1">
-      <c r="A100" s="3" t="s">
+    <row r="100" spans="1:5">
+      <c r="A100" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B100" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C100" s="2" t="s">
+      <c r="B100" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100" s="5">
         <v>237</v>
       </c>
     </row>
-    <row r="101" spans="1:5" s="5" customFormat="1">
-      <c r="A101" s="3" t="s">
+    <row r="101" spans="1:5">
+      <c r="A101" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B101" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C101" s="2" t="s">
+      <c r="B101" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="5">
         <v>169</v>
       </c>
     </row>
-    <row r="102" spans="1:5" s="5" customFormat="1">
-      <c r="A102" s="3" t="s">
+    <row r="102" spans="1:5">
+      <c r="A102" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B102" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C102" s="2" t="s">
+      <c r="B102" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E102" s="5">
         <v>279</v>
       </c>
     </row>
-    <row r="103" spans="1:5" s="5" customFormat="1">
-      <c r="A103" s="3" t="s">
+    <row r="103" spans="1:5">
+      <c r="A103" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B103" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C103" s="2" t="s">
+      <c r="B103" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103" s="6">
         <v>216</v>
       </c>
     </row>
-    <row r="104" spans="1:5" s="5" customFormat="1">
-      <c r="A104" s="3" t="s">
+    <row r="104" spans="1:5">
+      <c r="A104" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B104" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C104" s="2" t="s">
+      <c r="B104" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104" s="6">
         <v>171</v>
       </c>
     </row>
-    <row r="105" spans="1:5" s="5" customFormat="1">
-      <c r="A105" s="3" t="s">
+    <row r="105" spans="1:5">
+      <c r="A105" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B105" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C105" s="2" t="s">
+      <c r="B105" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105" s="6">
         <v>188</v>
       </c>
     </row>
-    <row r="106" spans="1:5" s="5" customFormat="1">
-      <c r="A106" s="3" t="s">
+    <row r="106" spans="1:5">
+      <c r="A106" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B106" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C106" s="2" t="s">
+      <c r="B106" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E106" s="5">
         <v>172</v>
       </c>
     </row>
-    <row r="107" spans="1:5" s="5" customFormat="1">
-      <c r="A107" s="3" t="s">
+    <row r="107" spans="1:5">
+      <c r="A107" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B107" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C107" s="2" t="s">
+      <c r="B107" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E107" s="5">
         <v>109</v>
       </c>
     </row>
-    <row r="108" spans="1:5" s="5" customFormat="1">
-      <c r="A108" s="3" t="s">
+    <row r="108" spans="1:5">
+      <c r="A108" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B108" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C108" s="2" t="s">
+      <c r="B108" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E108" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" s="5" customFormat="1">
-      <c r="A109" s="3" t="s">
+      <c r="E108" s="5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B109" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E109" s="2">
+      <c r="B109" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E109" s="5">
         <v>156</v>
       </c>
     </row>
-    <row r="110" spans="1:5" s="5" customFormat="1">
-      <c r="A110" s="3" t="s">
+    <row r="110" spans="1:5">
+      <c r="A110" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B110" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E110" s="2">
+      <c r="B110" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E110" s="5">
         <v>91</v>
       </c>
     </row>
-    <row r="111" spans="1:5" s="5" customFormat="1">
-      <c r="A111" s="3" t="s">
+    <row r="111" spans="1:5">
+      <c r="A111" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B111" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E111" s="2">
+      <c r="B111" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E111" s="5">
         <v>87</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="5" customFormat="1">
-      <c r="A112" s="3" t="s">
+    <row r="112" spans="1:5">
+      <c r="A112" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B112" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E112" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" s="5" customFormat="1">
-      <c r="A113" s="3" t="s">
+      <c r="B112" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E112" s="5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B113" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E113" s="2">
+      <c r="B113" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E113" s="5">
         <v>90</v>
       </c>
     </row>
-    <row r="114" spans="1:5" s="5" customFormat="1">
-      <c r="A114" s="3" t="s">
+    <row r="114" spans="1:5">
+      <c r="A114" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B114" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E114" s="2">
+      <c r="B114" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E114" s="5">
         <v>70</v>
       </c>
     </row>
-    <row r="115" spans="1:5" s="5" customFormat="1">
-      <c r="A115" s="3" t="s">
+    <row r="115" spans="1:5">
+      <c r="A115" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B115" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E115" s="2">
+      <c r="B115" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E115" s="5">
         <v>74</v>
       </c>
     </row>
-    <row r="116" spans="1:5" s="5" customFormat="1">
-      <c r="A116" s="3" t="s">
+    <row r="116" spans="1:5">
+      <c r="A116" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B116" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E116" s="2">
+      <c r="B116" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E116" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="1:5" s="5" customFormat="1">
-      <c r="A117" s="3" t="s">
+    <row r="117" spans="1:5">
+      <c r="A117" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B117" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E117" s="2">
+      <c r="B117" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E117" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:5" s="5" customFormat="1">
-      <c r="A118" s="3" t="s">
+    <row r="118" spans="1:5">
+      <c r="A118" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B118" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E118" s="2">
+      <c r="B118" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E118" s="5">
         <v>89</v>
       </c>
     </row>
-    <row r="119" spans="1:5" s="5" customFormat="1">
-      <c r="A119" s="3" t="s">
+    <row r="119" spans="1:5">
+      <c r="A119" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B119" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E119" s="2">
+      <c r="B119" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E119" s="5">
         <v>74</v>
       </c>
     </row>
-    <row r="120" spans="1:5" s="5" customFormat="1">
-      <c r="A120" s="3" t="s">
+    <row r="120" spans="1:5">
+      <c r="A120" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B120" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E120" s="2">
+      <c r="B120" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E120" s="6">
         <v>105</v>
       </c>
     </row>
-    <row r="121" spans="1:5" s="5" customFormat="1">
-      <c r="A121" s="3" t="s">
+    <row r="121" spans="1:5">
+      <c r="A121" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B121" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E121" s="2">
+      <c r="B121" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E121" s="5">
         <v>68</v>
       </c>
     </row>
-    <row r="122" spans="1:5" s="5" customFormat="1">
-      <c r="A122" s="3" t="s">
+    <row r="122" spans="1:5">
+      <c r="A122" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B122" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E122" s="2">
+      <c r="B122" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E122" s="5">
         <v>91</v>
       </c>
     </row>
-    <row r="123" spans="1:5" s="5" customFormat="1">
-      <c r="A123" s="3" t="s">
+    <row r="123" spans="1:5">
+      <c r="A123" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B123" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E123" s="2">
+      <c r="B123" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E123" s="5">
         <v>149</v>
       </c>
     </row>
-    <row r="124" spans="1:5" s="5" customFormat="1">
-      <c r="A124" s="3" t="s">
+    <row r="124" spans="1:5">
+      <c r="A124" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B124" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E124" s="2">
+      <c r="B124" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E124" s="5">
         <v>108</v>
       </c>
     </row>
-    <row r="125" spans="1:5" s="5" customFormat="1">
-      <c r="A125" s="3" t="s">
+    <row r="125" spans="1:5">
+      <c r="A125" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B125" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E125" s="2">
+      <c r="B125" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E125" s="5">
         <v>131</v>
       </c>
     </row>
-    <row r="126" spans="1:5" s="5" customFormat="1">
-      <c r="A126" s="3" t="s">
+    <row r="126" spans="1:5">
+      <c r="A126" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B126" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E126" s="2">
+      <c r="B126" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E126" s="5">
         <v>133</v>
       </c>
     </row>
-    <row r="127" spans="1:5" s="5" customFormat="1">
-      <c r="A127" s="3" t="s">
+    <row r="127" spans="1:5">
+      <c r="A127" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B127" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E127" s="2">
+      <c r="B127" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E127" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="128" spans="1:5" s="5" customFormat="1">
-      <c r="A128" s="3" t="s">
+    <row r="128" spans="1:5">
+      <c r="A128" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B128" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E128" s="2">
+      <c r="B128" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E128" s="5">
         <v>86</v>
       </c>
     </row>
-    <row r="129" spans="1:5" s="5" customFormat="1">
-      <c r="A129" s="3" t="s">
+    <row r="129" spans="1:5">
+      <c r="A129" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B129" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E129" s="2">
+      <c r="B129" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E129" s="6">
         <v>83</v>
       </c>
     </row>
-    <row r="130" spans="1:5" s="5" customFormat="1">
-      <c r="A130" s="3" t="s">
+    <row r="130" spans="1:5">
+      <c r="A130" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B130" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E130" s="2">
+      <c r="B130" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E130" s="5">
         <v>134</v>
       </c>
     </row>
-    <row r="131" spans="1:5" s="5" customFormat="1">
-      <c r="A131" s="3" t="s">
+    <row r="131" spans="1:5">
+      <c r="A131" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B131" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E131" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" s="5" customFormat="1">
-      <c r="A132" s="3" t="s">
+      <c r="B131" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E131" s="5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B132" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E132" s="2">
+      <c r="B132" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E132" s="5">
         <v>105</v>
       </c>
     </row>
-    <row r="133" spans="1:5" s="5" customFormat="1">
-      <c r="A133" s="3" t="s">
+    <row r="133" spans="1:5">
+      <c r="A133" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B133" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E133" s="2">
+      <c r="B133" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E133" s="5">
         <v>86</v>
       </c>
     </row>
-    <row r="134" spans="1:5" s="5" customFormat="1">
-      <c r="A134" s="3" t="s">
+    <row r="134" spans="1:5">
+      <c r="A134" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B134" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E134" s="2">
+      <c r="B134" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E134" s="3">
         <v>77</v>
       </c>
     </row>
-    <row r="135" spans="1:5" s="5" customFormat="1">
-      <c r="A135" s="3" t="s">
+    <row r="135" spans="1:5">
+      <c r="A135" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B135" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E135" s="2">
+      <c r="B135" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E135" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="136" spans="1:5" s="5" customFormat="1">
-      <c r="A136" s="3" t="s">
+    <row r="136" spans="1:5">
+      <c r="A136" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B136" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E136" s="2">
+      <c r="B136" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E136" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="137" spans="1:5" s="5" customFormat="1">
-      <c r="A137" s="3" t="s">
+    <row r="137" spans="1:5">
+      <c r="A137" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B137" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E137" s="2">
+      <c r="B137" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E137" s="5">
         <v>89</v>
       </c>
     </row>
-    <row r="138" spans="1:5" s="5" customFormat="1">
-      <c r="A138" s="3" t="s">
+    <row r="138" spans="1:5">
+      <c r="A138" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B138" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E138" s="2">
+      <c r="B138" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E138" s="5">
         <v>67</v>
       </c>
     </row>
-    <row r="139" spans="1:5" s="5" customFormat="1">
-      <c r="A139" s="3" t="s">
+    <row r="139" spans="1:5">
+      <c r="A139" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B139" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E139" s="2">
+      <c r="B139" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E139" s="5">
         <v>78</v>
       </c>
     </row>
-    <row r="140" spans="1:5" s="5" customFormat="1">
-      <c r="A140" s="3" t="s">
+    <row r="140" spans="1:5">
+      <c r="A140" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B140" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E140" s="2">
+      <c r="B140" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E140" s="5">
         <v>91</v>
       </c>
     </row>
-    <row r="141" spans="1:5" s="5" customFormat="1">
-      <c r="A141" s="3" t="s">
+    <row r="141" spans="1:5">
+      <c r="A141" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B141" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E141" s="2">
+      <c r="B141" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E141" s="5">
         <v>48</v>
       </c>
     </row>
-    <row r="142" spans="1:5" s="5" customFormat="1">
-      <c r="A142" s="3" t="s">
+    <row r="142" spans="1:5">
+      <c r="A142" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B142" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E142" s="2">
+      <c r="B142" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E142" s="5">
         <v>52</v>
       </c>
     </row>
-    <row r="143" spans="1:5" s="5" customFormat="1">
-      <c r="A143" s="3" t="s">
+    <row r="143" spans="1:5">
+      <c r="A143" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B143" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E143" s="2">
+      <c r="B143" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E143" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="144" spans="1:5" s="5" customFormat="1">
-      <c r="A144" s="3" t="s">
+    <row r="144" spans="1:5">
+      <c r="A144" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B144" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E144" s="2">
+      <c r="B144" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E144" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="145" spans="1:5" s="5" customFormat="1">
-      <c r="A145" s="3" t="s">
+    <row r="145" spans="1:5">
+      <c r="A145" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B145" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E145" s="2">
+      <c r="B145" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E145" s="5">
         <v>97</v>
       </c>
     </row>
-    <row r="146" spans="1:5" s="5" customFormat="1">
-      <c r="A146" s="3" t="s">
+    <row r="146" spans="1:5">
+      <c r="A146" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B146" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E146" s="2">
+      <c r="B146" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E146" s="5">
         <v>117</v>
       </c>
     </row>
-    <row r="147" spans="1:5" s="5" customFormat="1">
-      <c r="A147" s="3" t="s">
+    <row r="147" spans="1:5">
+      <c r="A147" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B147" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E147" s="2">
+      <c r="B147" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E147" s="5">
         <v>104</v>
       </c>
     </row>
-    <row r="148" spans="1:5" s="5" customFormat="1">
-      <c r="A148" s="3" t="s">
+    <row r="148" spans="1:5">
+      <c r="A148" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B148" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E148" s="2">
+      <c r="B148" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E148" s="5">
         <v>78</v>
       </c>
     </row>
-    <row r="149" spans="1:5" s="5" customFormat="1">
-      <c r="A149" s="3" t="s">
+    <row r="149" spans="1:5">
+      <c r="A149" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B149" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E149" s="2">
+      <c r="B149" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E149" s="5">
         <v>47</v>
       </c>
     </row>
-    <row r="150" spans="1:5" s="5" customFormat="1">
-      <c r="A150" s="3" t="s">
+    <row r="150" spans="1:5">
+      <c r="A150" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B150" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E150" s="2">
+      <c r="B150" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E150" s="5">
         <v>55</v>
       </c>
     </row>
-    <row r="151" spans="1:5" s="5" customFormat="1">
-      <c r="A151" s="3" t="s">
+    <row r="151" spans="1:5">
+      <c r="A151" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B151" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E151" s="2">
+      <c r="B151" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E151" s="5">
         <v>129</v>
       </c>
     </row>
-    <row r="152" spans="1:5" s="5" customFormat="1">
-      <c r="A152" s="3" t="s">
+    <row r="152" spans="1:5">
+      <c r="A152" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B152" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E152" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" s="5" customFormat="1">
-      <c r="A153" s="3" t="s">
+      <c r="B152" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E152" s="5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B153" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E153" s="2">
+      <c r="B153" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E153" s="5">
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:5" s="5" customFormat="1">
-      <c r="A154" s="3" t="s">
+    <row r="154" spans="1:5">
+      <c r="A154" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B154" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E154" s="2">
+      <c r="B154" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E154" s="6">
         <v>75</v>
       </c>
     </row>
-    <row r="155" spans="1:5" s="5" customFormat="1">
-      <c r="A155" s="3" t="s">
+    <row r="155" spans="1:5">
+      <c r="A155" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B155" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E155" s="2">
+      <c r="B155" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E155" s="5">
         <v>104</v>
       </c>
     </row>
-    <row r="156" spans="1:5" s="5" customFormat="1">
-      <c r="A156" s="3" t="s">
+    <row r="156" spans="1:5">
+      <c r="A156" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B156" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E156" s="2">
+      <c r="B156" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E156" s="5">
         <v>72</v>
       </c>
     </row>
-    <row r="157" spans="1:5" s="5" customFormat="1">
-      <c r="A157" s="3" t="s">
+    <row r="157" spans="1:5">
+      <c r="A157" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B157" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E157" s="2">
+      <c r="B157" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E157" s="5">
         <v>73</v>
       </c>
     </row>
-    <row r="158" spans="1:5" s="5" customFormat="1">
-      <c r="A158" s="3" t="s">
+    <row r="158" spans="1:5">
+      <c r="A158" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B158" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E158" s="2">
+      <c r="B158" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E158" s="6">
         <v>122</v>
       </c>
     </row>
-    <row r="159" spans="1:5" s="5" customFormat="1">
-      <c r="A159" s="3" t="s">
+    <row r="159" spans="1:5">
+      <c r="A159" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B159" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D159" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E159" s="2">
+      <c r="B159" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E159" s="6">
         <v>101</v>
       </c>
     </row>
-    <row r="160" spans="1:5" s="5" customFormat="1">
-      <c r="A160" s="3" t="s">
+    <row r="160" spans="1:5">
+      <c r="A160" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B160" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E160" s="2">
+      <c r="B160" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D160" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E160" s="6">
         <v>103</v>
       </c>
     </row>
-    <row r="161" spans="1:5" s="5" customFormat="1">
-      <c r="A161" s="3" t="s">
+    <row r="161" spans="1:5">
+      <c r="A161" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B161" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E161" s="2">
+      <c r="B161" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D161" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E161" s="6">
         <v>98</v>
       </c>
     </row>
-    <row r="162" spans="1:5" s="5" customFormat="1">
-      <c r="A162" s="3" t="s">
+    <row r="162" spans="1:5">
+      <c r="A162" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B162" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E162" s="2">
+      <c r="B162" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E162" s="6">
         <v>91</v>
       </c>
     </row>
-    <row r="163" spans="1:5" s="5" customFormat="1">
-      <c r="A163" s="3" t="s">
+    <row r="163" spans="1:5">
+      <c r="A163" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B163" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E163" s="2">
+      <c r="B163" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D163" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E163" s="6">
         <v>65</v>
       </c>
     </row>
-    <row r="164" spans="1:5" s="5" customFormat="1">
-      <c r="A164" s="3" t="s">
+    <row r="164" spans="1:5">
+      <c r="A164" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B164" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E164" s="2">
+      <c r="B164" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D164" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E164" s="6">
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:5" s="5" customFormat="1">
-      <c r="A165" s="3" t="s">
+    <row r="165" spans="1:5">
+      <c r="A165" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B165" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E165" s="2">
+      <c r="B165" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E165" s="5">
         <v>157</v>
       </c>
     </row>
-    <row r="166" spans="1:5" s="5" customFormat="1">
-      <c r="A166" s="3" t="s">
+    <row r="166" spans="1:5">
+      <c r="A166" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B166" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E166" s="2">
+      <c r="B166" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E166" s="5">
         <v>112</v>
       </c>
     </row>
-    <row r="167" spans="1:5" s="5" customFormat="1">
-      <c r="A167" s="3" t="s">
+    <row r="167" spans="1:5">
+      <c r="A167" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B167" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E167" s="2">
+      <c r="B167" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D167" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E167" s="5">
         <v>128</v>
       </c>
     </row>
-    <row r="168" spans="1:5" s="5" customFormat="1">
-      <c r="A168" s="3" t="s">
+    <row r="168" spans="1:5">
+      <c r="A168" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B168" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E168" s="2">
+      <c r="B168" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E168" s="5">
         <v>125</v>
       </c>
     </row>
-    <row r="169" spans="1:5" s="5" customFormat="1">
-      <c r="A169" s="3" t="s">
+    <row r="169" spans="1:5" s="11" customFormat="1">
+      <c r="A169" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B169" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E169" s="2">
+      <c r="B169" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E169" s="5">
         <v>127</v>
       </c>
     </row>
-    <row r="170" spans="1:5" s="5" customFormat="1">
-      <c r="A170" s="3" t="s">
+    <row r="170" spans="1:5" s="11" customFormat="1">
+      <c r="A170" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B170" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E170" s="2">
+      <c r="B170" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D170" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E170" s="5">
         <v>88</v>
       </c>
     </row>
-    <row r="171" spans="1:5" s="5" customFormat="1">
-      <c r="A171" s="3" t="s">
+    <row r="171" spans="1:5" s="11" customFormat="1">
+      <c r="A171" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B171" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D171" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E171" s="2">
+      <c r="B171" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E171" s="5">
         <v>119</v>
       </c>
     </row>
-    <row r="172" spans="1:5" s="5" customFormat="1">
-      <c r="A172" s="3" t="s">
+    <row r="172" spans="1:5" s="11" customFormat="1">
+      <c r="A172" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B172" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D172" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E172" s="2">
+      <c r="B172" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D172" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E172" s="5">
         <v>172</v>
       </c>
     </row>
-    <row r="173" spans="1:5" s="5" customFormat="1">
-      <c r="A173" s="3" t="s">
+    <row r="173" spans="1:5" s="11" customFormat="1">
+      <c r="A173" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B173" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D173" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E173" s="2">
+      <c r="B173" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D173" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E173" s="5">
         <v>136</v>
       </c>
     </row>
-    <row r="174" spans="1:5" s="5" customFormat="1">
-      <c r="A174" s="3" t="s">
+    <row r="174" spans="1:5">
+      <c r="A174" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B174" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D174" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E174" s="2">
+      <c r="B174" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D174" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E174" s="3">
         <v>175</v>
       </c>
     </row>
-    <row r="175" spans="1:5" s="5" customFormat="1">
-      <c r="A175" s="3" t="s">
+    <row r="175" spans="1:5">
+      <c r="A175" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B175" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D175" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E175" s="2">
+      <c r="B175" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D175" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E175" s="3">
         <v>176</v>
       </c>
     </row>
-    <row r="176" spans="1:5" s="5" customFormat="1">
-      <c r="A176" s="3" t="s">
+    <row r="176" spans="1:5">
+      <c r="A176" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B176" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E176" s="2">
+      <c r="B176" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E176" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="177" spans="1:5" s="5" customFormat="1">
-      <c r="A177" s="3" t="s">
+    <row r="177" spans="1:5">
+      <c r="A177" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B177" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D177" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E177" s="2">
+      <c r="B177" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D177" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E177" s="3">
         <v>194</v>
       </c>
     </row>
-    <row r="178" spans="1:5" s="5" customFormat="1">
-      <c r="A178" s="3" t="s">
+    <row r="178" spans="1:5">
+      <c r="A178" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B178" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D178" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E178" s="2">
+      <c r="B178" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E178" s="3">
         <v>233</v>
       </c>
     </row>
-    <row r="179" spans="1:5" s="5" customFormat="1">
-      <c r="A179" s="3" t="s">
+    <row r="179" spans="1:5">
+      <c r="A179" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B179" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E179" s="2">
+      <c r="B179" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E179" s="3">
         <v>508</v>
       </c>
     </row>
-    <row r="180" spans="1:5" s="5" customFormat="1">
-      <c r="A180" s="3" t="s">
+    <row r="180" spans="1:5">
+      <c r="A180" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B180" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D180" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E180" s="2">
+      <c r="B180" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E180" s="3">
         <v>484</v>
       </c>
     </row>
-    <row r="181" spans="1:5" s="5" customFormat="1">
-      <c r="A181" s="3" t="s">
+    <row r="181" spans="1:5">
+      <c r="A181" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B181" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D181" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E181" s="2">
+      <c r="B181" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E181" s="3">
         <v>376</v>
       </c>
     </row>
-    <row r="182" spans="1:5" s="5" customFormat="1">
-      <c r="A182" s="3" t="s">
+    <row r="182" spans="1:5">
+      <c r="A182" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B182" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D182" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E182" s="2">
+      <c r="B182" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D182" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E182" s="3">
         <v>423</v>
       </c>
     </row>
-    <row r="183" spans="1:5" s="5" customFormat="1">
-      <c r="A183" s="3" t="s">
+    <row r="183" spans="1:5">
+      <c r="A183" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B183" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E183" s="2">
+      <c r="B183" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D183" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E183" s="3">
         <v>368</v>
       </c>
     </row>
-    <row r="184" spans="1:5" s="5" customFormat="1">
-      <c r="A184" s="3" t="s">
+    <row r="184" spans="1:5">
+      <c r="A184" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B184" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E184" s="2">
+      <c r="B184" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D184" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E184" s="3">
         <v>260</v>
       </c>
     </row>
-    <row r="185" spans="1:5" s="5" customFormat="1">
-      <c r="A185" s="3" t="s">
+    <row r="185" spans="1:5">
+      <c r="A185" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B185" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E185" s="2">
+      <c r="B185" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D185" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E185" s="3">
         <v>173</v>
       </c>
     </row>
-    <row r="186" spans="1:5" s="5" customFormat="1">
-      <c r="A186" s="3" t="s">
+    <row r="186" spans="1:5">
+      <c r="A186" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B186" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E186" s="2">
+      <c r="B186" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D186" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E186" s="3">
         <v>141</v>
       </c>
     </row>
-    <row r="187" spans="1:5" s="5" customFormat="1">
-      <c r="A187" s="3" t="s">
+    <row r="187" spans="1:5">
+      <c r="A187" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B187" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D187" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E187" s="2">
+      <c r="B187" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D187" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E187" s="3">
         <v>384</v>
       </c>
     </row>
-    <row r="188" spans="1:5" s="5" customFormat="1">
-      <c r="A188" s="3" t="s">
+    <row r="188" spans="1:5">
+      <c r="A188" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B188" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D188" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E188" s="2">
+      <c r="B188" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D188" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E188" s="3">
         <v>459</v>
       </c>
     </row>
-    <row r="189" spans="1:5" s="5" customFormat="1">
-      <c r="A189" s="3" t="s">
+    <row r="189" spans="1:5">
+      <c r="A189" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B189" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D189" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E189" s="2">
+      <c r="B189" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D189" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E189" s="3">
         <v>428</v>
       </c>
     </row>
-    <row r="190" spans="1:5" s="5" customFormat="1">
-      <c r="A190" s="3" t="s">
+    <row r="190" spans="1:5">
+      <c r="A190" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B190" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D190" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E190" s="2">
+      <c r="B190" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D190" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E190" s="3">
         <v>350</v>
       </c>
     </row>
-    <row r="191" spans="1:5" s="5" customFormat="1">
-      <c r="A191" s="3" t="s">
+    <row r="191" spans="1:5">
+      <c r="A191" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B191" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D191" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E191" s="2">
+      <c r="B191" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D191" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E191" s="3">
         <v>268</v>
       </c>
     </row>
-    <row r="192" spans="1:5" s="5" customFormat="1">
-      <c r="A192" s="3" t="s">
+    <row r="192" spans="1:5">
+      <c r="A192" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B192" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D192" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E192" s="2">
+      <c r="B192" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D192" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E192" s="3">
         <v>211</v>
       </c>
     </row>
-    <row r="193" spans="1:5" s="5" customFormat="1">
-      <c r="A193" s="3" t="s">
+    <row r="193" spans="1:5">
+      <c r="A193" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B193" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D193" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E193" s="2">
+      <c r="B193" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D193" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E193" s="3">
         <v>292</v>
       </c>
     </row>
-    <row r="194" spans="1:5" s="5" customFormat="1">
-      <c r="A194" s="3" t="s">
+    <row r="194" spans="1:5">
+      <c r="A194" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B194" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E194" s="2">
+      <c r="B194" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D194" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E194" s="3">
         <v>284</v>
       </c>
     </row>
-    <row r="195" spans="1:5" s="5" customFormat="1">
-      <c r="A195" s="3" t="s">
+    <row r="195" spans="1:5">
+      <c r="A195" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B195" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D195" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E195" s="2">
+      <c r="B195" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D195" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E195" s="3">
         <v>263</v>
       </c>
     </row>
-    <row r="196" spans="1:5" s="5" customFormat="1">
-      <c r="A196" s="3" t="s">
+    <row r="196" spans="1:5">
+      <c r="A196" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B196" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D196" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E196" s="2">
+      <c r="B196" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D196" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E196" s="3">
         <v>298</v>
       </c>
     </row>
-    <row r="197" spans="1:5" s="5" customFormat="1">
-      <c r="A197" s="3" t="s">
+    <row r="197" spans="1:5">
+      <c r="A197" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B197" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D197" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E197" s="2">
+      <c r="B197" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D197" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E197" s="3">
         <v>347</v>
       </c>
     </row>
-    <row r="198" spans="1:5" s="5" customFormat="1">
-      <c r="A198" s="3" t="s">
+    <row r="198" spans="1:5">
+      <c r="A198" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B198" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D198" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E198" s="2">
+      <c r="B198" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D198" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E198" s="3">
         <v>254</v>
       </c>
     </row>
-    <row r="199" spans="1:5" s="5" customFormat="1">
-      <c r="A199" s="3" t="s">
+    <row r="199" spans="1:5">
+      <c r="A199" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B199" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D199" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E199" s="2">
+      <c r="B199" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D199" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E199" s="3">
         <v>267</v>
       </c>
     </row>
-    <row r="200" spans="1:5" s="5" customFormat="1">
-      <c r="A200" s="3" t="s">
+    <row r="200" spans="1:5">
+      <c r="A200" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B200" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D200" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E200" s="2">
+      <c r="B200" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D200" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E200" s="3">
         <v>427</v>
       </c>
     </row>
-    <row r="201" spans="1:5" s="5" customFormat="1">
-      <c r="A201" s="3" t="s">
+    <row r="201" spans="1:5">
+      <c r="A201" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B201" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D201" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E201" s="2">
+      <c r="B201" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D201" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E201" s="3">
         <v>306</v>
       </c>
     </row>
-    <row r="202" spans="1:5" s="5" customFormat="1">
-      <c r="A202" s="3" t="s">
+    <row r="202" spans="1:5">
+      <c r="A202" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B202" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D202" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E202" s="2">
+      <c r="B202" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D202" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E202" s="3">
         <v>277</v>
       </c>
     </row>
-    <row r="203" spans="1:5" s="5" customFormat="1">
-      <c r="A203" s="3" t="s">
+    <row r="203" spans="1:5">
+      <c r="A203" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B203" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D203" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E203" s="2">
+      <c r="B203" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D203" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E203" s="3">
         <v>283</v>
       </c>
     </row>
-    <row r="204" spans="1:5" s="5" customFormat="1">
-      <c r="A204" s="3" t="s">
+    <row r="204" spans="1:5">
+      <c r="A204" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="B204" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D204" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E204" s="2">
+      <c r="B204" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D204" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E204" s="3">
         <v>254</v>
       </c>
     </row>
-    <row r="205" spans="1:5" s="5" customFormat="1">
-      <c r="A205" s="3" t="s">
+    <row r="205" spans="1:5">
+      <c r="A205" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="B205" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D205" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E205" s="2">
+      <c r="B205" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D205" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E205" s="3">
         <v>245</v>
       </c>
     </row>
-    <row r="206" spans="1:5" s="5" customFormat="1">
-      <c r="A206" s="3" t="s">
+    <row r="206" spans="1:5">
+      <c r="A206" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B206" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D206" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E206" s="2">
+      <c r="B206" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D206" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E206" s="3">
         <v>154</v>
       </c>
     </row>
-    <row r="207" spans="1:5" s="5" customFormat="1">
-      <c r="A207" s="3" t="s">
+    <row r="207" spans="1:5">
+      <c r="A207" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B207" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D207" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E207" s="2">
+      <c r="B207" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D207" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E207" s="5">
         <v>285</v>
       </c>
     </row>
-    <row r="208" spans="1:5" s="5" customFormat="1">
-      <c r="A208" s="3" t="s">
+    <row r="208" spans="1:5">
+      <c r="A208" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="B208" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D208" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E208" s="2">
+      <c r="B208" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D208" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E208" s="5">
         <v>253</v>
       </c>
     </row>
-    <row r="209" spans="1:5" s="5" customFormat="1">
-      <c r="A209" s="3" t="s">
+    <row r="209" spans="1:5">
+      <c r="A209" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B209" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D209" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E209" s="2">
+      <c r="B209" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D209" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E209" s="5">
         <v>235</v>
       </c>
     </row>
-    <row r="210" spans="1:5" s="5" customFormat="1">
-      <c r="A210" s="3" t="s">
+    <row r="210" spans="1:5">
+      <c r="A210" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B210" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D210" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E210" s="2">
+      <c r="B210" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D210" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E210" s="5">
         <v>251</v>
       </c>
     </row>
-    <row r="211" spans="1:5" s="5" customFormat="1">
-      <c r="A211" s="3" t="s">
+    <row r="211" spans="1:5">
+      <c r="A211" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B211" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D211" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E211" s="2">
+      <c r="B211" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D211" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E211" s="5">
         <v>235</v>
       </c>
     </row>
-    <row r="212" spans="1:5" s="5" customFormat="1">
-      <c r="A212" s="3" t="s">
+    <row r="212" spans="1:5">
+      <c r="A212" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B212" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D212" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E212" s="2">
+      <c r="B212" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D212" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E212" s="5">
         <v>170</v>
       </c>
     </row>
-    <row r="213" spans="1:5" s="5" customFormat="1">
-      <c r="A213" s="3" t="s">
+    <row r="213" spans="1:5">
+      <c r="A213" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B213" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D213" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E213" s="2">
+      <c r="B213" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D213" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E213" s="5">
         <v>135</v>
       </c>
     </row>
-    <row r="214" spans="1:5" s="5" customFormat="1">
-      <c r="A214" s="3" t="s">
+    <row r="214" spans="1:5">
+      <c r="A214" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="B214" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D214" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E214" s="2">
+      <c r="B214" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D214" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E214" s="5">
         <v>328</v>
       </c>
     </row>
-    <row r="215" spans="1:5" s="5" customFormat="1">
-      <c r="A215" s="6" t="s">
+    <row r="215" spans="1:5" s="11" customFormat="1">
+      <c r="A215" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="B215" s="7">
-        <v>430005</v>
-      </c>
-      <c r="C215" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D215" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E215" s="7">
+      <c r="B215" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C215" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D215" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E215" s="13">
         <v>211</v>
       </c>
     </row>
-    <row r="216" spans="1:5" s="5" customFormat="1">
-      <c r="A216" s="6" t="s">
+    <row r="216" spans="1:5" s="11" customFormat="1">
+      <c r="A216" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B216" s="7">
-        <v>430005</v>
-      </c>
-      <c r="C216" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D216" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E216" s="7">
+      <c r="B216" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C216" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D216" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E216" s="13">
         <v>226</v>
       </c>
     </row>
-    <row r="217" spans="1:5" s="5" customFormat="1">
-      <c r="A217" s="6" t="s">
+    <row r="217" spans="1:5" s="11" customFormat="1">
+      <c r="A217" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="B217" s="7">
-        <v>430005</v>
-      </c>
-      <c r="C217" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D217" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E217" s="7">
+      <c r="B217" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C217" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D217" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E217" s="13">
         <v>178</v>
       </c>
     </row>
-    <row r="218" spans="1:5" s="5" customFormat="1">
-      <c r="A218" s="6" t="s">
+    <row r="218" spans="1:5">
+      <c r="A218" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="B218" s="7">
-        <v>430005</v>
-      </c>
-      <c r="C218" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D218" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E218" s="7">
+      <c r="B218" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C218" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D218" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E218" s="13">
         <v>124</v>
       </c>
     </row>
-    <row r="219" spans="1:5" s="5" customFormat="1">
-      <c r="A219" s="6" t="s">
+    <row r="219" spans="1:5">
+      <c r="A219" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="B219" s="7">
-        <v>430005</v>
-      </c>
-      <c r="C219" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D219" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E219" s="7">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" s="5" customFormat="1">
-      <c r="A220" s="6" t="s">
+      <c r="B219" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C219" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D219" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E219" s="13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="B220" s="7">
-        <v>430005</v>
-      </c>
-      <c r="C220" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D220" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E220" s="7">
-        <v>70</v>
-      </c>
+      <c r="B220" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C220" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D220" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E220" s="13">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B221" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C221" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D221" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E221" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="18"/>
+      <c r="B222" s="19"/>
+      <c r="C222" s="19"/>
+      <c r="D222" s="20"/>
+      <c r="E222" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="229">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -802,6 +802,9 @@
   </si>
   <si>
     <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>2020-09-08</t>
   </si>
 </sst>
 </file>
@@ -967,6 +970,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -976,12 +985,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1267,11 +1270,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E222"/>
+  <dimension ref="A1:F223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G214" sqref="G214"/>
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A223" sqref="A223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1313,7 +1316,7 @@
       <c r="D2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="19" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1330,7 +1333,7 @@
       <c r="D3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -1345,7 +1348,7 @@
       <c r="D4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
@@ -4815,7 +4818,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:6">
       <c r="A209" s="9" t="s">
         <v>215</v>
       </c>
@@ -4832,7 +4835,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:6">
       <c r="A210" s="9" t="s">
         <v>216</v>
       </c>
@@ -4849,7 +4852,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:6">
       <c r="A211" s="9" t="s">
         <v>217</v>
       </c>
@@ -4866,7 +4869,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:6">
       <c r="A212" s="9" t="s">
         <v>218</v>
       </c>
@@ -4883,7 +4886,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:6">
       <c r="A213" s="9" t="s">
         <v>219</v>
       </c>
@@ -4900,7 +4903,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:6">
       <c r="A214" s="9" t="s">
         <v>220</v>
       </c>
@@ -4917,7 +4920,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="215" spans="1:5" s="11" customFormat="1">
+    <row r="215" spans="1:6" s="11" customFormat="1">
       <c r="A215" s="12" t="s">
         <v>221</v>
       </c>
@@ -4934,7 +4937,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="216" spans="1:5" s="11" customFormat="1">
+    <row r="216" spans="1:6" s="11" customFormat="1">
       <c r="A216" s="12" t="s">
         <v>222</v>
       </c>
@@ -4951,7 +4954,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="217" spans="1:5" s="11" customFormat="1">
+    <row r="217" spans="1:6" s="11" customFormat="1">
       <c r="A217" s="12" t="s">
         <v>223</v>
       </c>
@@ -4968,7 +4971,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:6">
       <c r="A218" s="12" t="s">
         <v>224</v>
       </c>
@@ -4985,7 +4988,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:6">
       <c r="A219" s="12" t="s">
         <v>225</v>
       </c>
@@ -5002,7 +5005,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:6">
       <c r="A220" s="12" t="s">
         <v>226</v>
       </c>
@@ -5019,7 +5022,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:6">
       <c r="A221" s="12" t="s">
         <v>227</v>
       </c>
@@ -5033,15 +5036,33 @@
         <v>96</v>
       </c>
       <c r="E221" s="3">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" s="18"/>
-      <c r="B222" s="19"/>
-      <c r="C222" s="19"/>
-      <c r="D222" s="20"/>
-      <c r="E222" s="21"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B222" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C222" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D222" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E222" s="5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="15"/>
+      <c r="B223" s="16"/>
+      <c r="C223" s="16"/>
+      <c r="D223" s="17"/>
+      <c r="E223" s="18"/>
+      <c r="F223" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="231">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -805,6 +805,14 @@
   </si>
   <si>
     <t>2020-09-08</t>
+  </si>
+  <si>
+    <t>2020-09-09</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-09-10</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -970,12 +978,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1270,11 +1278,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F223"/>
+  <dimension ref="A1:F224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A223" sqref="A223"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G212" sqref="G212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5040,29 +5048,56 @@
       </c>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" s="12" t="s">
+      <c r="A222" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="B222" s="13">
-        <v>430005</v>
-      </c>
-      <c r="C222" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D222" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E222" s="5">
+      <c r="B222" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C222" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D222" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E222" s="6">
         <v>130</v>
       </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" s="15"/>
-      <c r="B223" s="16"/>
-      <c r="C223" s="16"/>
-      <c r="D223" s="17"/>
-      <c r="E223" s="18"/>
-      <c r="F223" s="18"/>
+      <c r="A223" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B223" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C223" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D223" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E223" s="6">
+        <v>215</v>
+      </c>
+      <c r="F223" s="15"/>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B224" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C224" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D224" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E224" s="6">
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="236">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -813,6 +813,22 @@
   <si>
     <t>2020-09-10</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
+    <t>2020-09-12</t>
+  </si>
+  <si>
+    <t>2020-09-13</t>
+  </si>
+  <si>
+    <t>2020-09-14</t>
   </si>
 </sst>
 </file>
@@ -1278,11 +1294,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F224"/>
+  <dimension ref="A1:I228"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G212" sqref="G212"/>
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E228" sqref="E228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4826,7 +4842,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:9">
       <c r="A209" s="9" t="s">
         <v>215</v>
       </c>
@@ -4843,7 +4859,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:9">
       <c r="A210" s="9" t="s">
         <v>216</v>
       </c>
@@ -4860,7 +4876,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:9">
       <c r="A211" s="9" t="s">
         <v>217</v>
       </c>
@@ -4877,7 +4893,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:9">
       <c r="A212" s="9" t="s">
         <v>218</v>
       </c>
@@ -4894,7 +4910,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:9">
       <c r="A213" s="9" t="s">
         <v>219</v>
       </c>
@@ -4911,7 +4927,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:9">
       <c r="A214" s="9" t="s">
         <v>220</v>
       </c>
@@ -4928,7 +4944,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="215" spans="1:6" s="11" customFormat="1">
+    <row r="215" spans="1:9" s="11" customFormat="1">
       <c r="A215" s="12" t="s">
         <v>221</v>
       </c>
@@ -4945,7 +4961,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="216" spans="1:6" s="11" customFormat="1">
+    <row r="216" spans="1:9" s="11" customFormat="1">
       <c r="A216" s="12" t="s">
         <v>222</v>
       </c>
@@ -4962,7 +4978,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="217" spans="1:6" s="11" customFormat="1">
+    <row r="217" spans="1:9" s="11" customFormat="1">
       <c r="A217" s="12" t="s">
         <v>223</v>
       </c>
@@ -4979,7 +4995,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:9">
       <c r="A218" s="12" t="s">
         <v>224</v>
       </c>
@@ -4996,7 +5012,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:9">
       <c r="A219" s="12" t="s">
         <v>225</v>
       </c>
@@ -5013,7 +5029,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:9">
       <c r="A220" s="12" t="s">
         <v>226</v>
       </c>
@@ -5030,7 +5046,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:9">
       <c r="A221" s="12" t="s">
         <v>227</v>
       </c>
@@ -5047,7 +5063,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:9">
       <c r="A222" s="16" t="s">
         <v>228</v>
       </c>
@@ -5063,40 +5079,112 @@
       <c r="E222" s="6">
         <v>130</v>
       </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="16" t="s">
+      <c r="I222" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="B223" s="17">
-        <v>430005</v>
-      </c>
-      <c r="C223" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D223" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E223" s="6">
+      <c r="B223" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C223" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D223" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E223" s="5">
         <v>215</v>
       </c>
       <c r="F223" s="15"/>
     </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="16" t="s">
+    <row r="224" spans="1:9">
+      <c r="A224" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="B224" s="17">
-        <v>430005</v>
-      </c>
-      <c r="C224" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D224" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E224" s="6">
+      <c r="B224" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C224" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D224" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E224" s="5">
         <v>125</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B225" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C225" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D225" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E225" s="5">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B226" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C226" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D226" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E226" s="5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B227" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C227" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D227" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E227" s="5">
+        <v>136</v>
+      </c>
+      <c r="F227" s="15"/>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B228" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C228" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D228" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E228" s="5">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="238">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -829,6 +829,12 @@
   </si>
   <si>
     <t>2020-09-14</t>
+  </si>
+  <si>
+    <t>2020-09-15</t>
+  </si>
+  <si>
+    <t>2020-09-16</t>
   </si>
 </sst>
 </file>
@@ -1294,11 +1300,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I228"/>
+  <dimension ref="A1:I230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E228" sqref="E228"/>
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E230" sqref="E230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5187,6 +5193,40 @@
         <v>189</v>
       </c>
     </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B229" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C229" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D229" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E229" s="6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B230" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C230" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D230" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E230" s="6">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="239">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -835,6 +835,10 @@
   </si>
   <si>
     <t>2020-09-16</t>
+  </si>
+  <si>
+    <t>2020-09-17</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1300,11 +1304,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I230"/>
+  <dimension ref="A1:I231"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E230" sqref="E230"/>
+      <selection pane="bottomLeft" activeCell="A231" sqref="A231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5210,7 +5214,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" s="11" customFormat="1">
       <c r="A230" s="12" t="s">
         <v>237</v>
       </c>
@@ -5223,8 +5227,25 @@
       <c r="D230" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E230" s="6">
+      <c r="E230" s="5">
         <v>180</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B231" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C231" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D231" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E231" s="5">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20580" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="244">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -839,6 +839,21 @@
   <si>
     <t>2020-09-17</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-09-18</t>
+  </si>
+  <si>
+    <t>2020-09-19</t>
+  </si>
+  <si>
+    <t>2020-09-20</t>
+  </si>
+  <si>
+    <t>2020-09-21</t>
+  </si>
+  <si>
+    <t>2020-09-22</t>
   </si>
 </sst>
 </file>
@@ -1304,11 +1319,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I231"/>
+  <dimension ref="A1:I236"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A231" sqref="A231"/>
+      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A236" sqref="A236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5248,6 +5263,91 @@
         <v>115</v>
       </c>
     </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="B232" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C232" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D232" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E232" s="6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B233" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C233" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D233" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E233" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="B234" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C234" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D234" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E234" s="6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="B235" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C235" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D235" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E235" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B236" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C236" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D236" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E236" s="6">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20580" windowHeight="7845"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="245">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -854,6 +854,9 @@
   </si>
   <si>
     <t>2020-09-22</t>
+  </si>
+  <si>
+    <t>2020-09-23</t>
   </si>
 </sst>
 </file>
@@ -1319,11 +1322,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I236"/>
+  <dimension ref="A1:I237"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A236" sqref="A236"/>
+      <selection pane="bottomLeft" activeCell="A237" sqref="A237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5348,6 +5351,23 @@
         <v>129</v>
       </c>
     </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="B237" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C237" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D237" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E237" s="6">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="246">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -857,6 +857,9 @@
   </si>
   <si>
     <t>2020-09-23</t>
+  </si>
+  <si>
+    <t>2020-09-24</t>
   </si>
 </sst>
 </file>
@@ -1322,11 +1325,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I237"/>
+  <dimension ref="A1:I238"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A237" sqref="A237"/>
+      <selection pane="bottomLeft" activeCell="A238" sqref="A238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5368,6 +5371,23 @@
         <v>171</v>
       </c>
     </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="B238" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C238" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D238" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E238" s="6">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="249">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -860,6 +860,15 @@
   </si>
   <si>
     <t>2020-09-24</t>
+  </si>
+  <si>
+    <t>2020-09-25</t>
+  </si>
+  <si>
+    <t>2020-09-26</t>
+  </si>
+  <si>
+    <t>2020-09-27</t>
   </si>
 </sst>
 </file>
@@ -1325,11 +1334,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I238"/>
+  <dimension ref="A1:I241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A238" sqref="A238"/>
+      <selection pane="bottomLeft" activeCell="A241" sqref="A241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5388,6 +5397,57 @@
         <v>114</v>
       </c>
     </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="B239" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C239" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D239" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E239" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B240" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C240" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D240" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E240" s="6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B241" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C241" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D241" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E241" s="6">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="250">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -869,6 +869,9 @@
   </si>
   <si>
     <t>2020-09-27</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
   </si>
 </sst>
 </file>
@@ -1334,11 +1337,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I241"/>
+  <dimension ref="A1:I244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A241" sqref="A241"/>
+      <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E242" sqref="A241:E242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5432,21 +5435,41 @@
       </c>
     </row>
     <row r="241" spans="1:5">
-      <c r="A241" s="16" t="s">
+      <c r="A241" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="B241" s="17">
-        <v>430005</v>
-      </c>
-      <c r="C241" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D241" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E241" s="6">
+      <c r="B241" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C241" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D241" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E241" s="5">
         <v>77</v>
       </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B242" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C242" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D242" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E242" s="5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="E244" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="251">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -872,6 +872,10 @@
   </si>
   <si>
     <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>2020-09-29</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1337,11 +1341,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I244"/>
+  <dimension ref="A1:I243"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E242" sqref="A241:E242"/>
+      <selection pane="bottomLeft" activeCell="H242" sqref="H242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5468,8 +5472,22 @@
         <v>122</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
-      <c r="E244" s="11"/>
+    <row r="243" spans="1:5">
+      <c r="A243" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="B243" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C243" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D243" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E243" s="5">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="256">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -876,6 +876,22 @@
   <si>
     <t>2020-09-29</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-10-02</t>
+  </si>
+  <si>
+    <t>2020-10-03</t>
+  </si>
+  <si>
+    <t>2020-10-04</t>
   </si>
 </sst>
 </file>
@@ -1341,11 +1357,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I243"/>
+  <dimension ref="A1:I248"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H242" sqref="H242"/>
+      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A248" sqref="A248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5489,6 +5505,91 @@
         <v>119</v>
       </c>
     </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B244" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E244" s="6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B245" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D245" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E245" s="6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B246" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D246" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E246" s="6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B247" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D247" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E247" s="6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="B248" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D248" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E248" s="6">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="257">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -892,6 +892,10 @@
   </si>
   <si>
     <t>2020-10-04</t>
+  </si>
+  <si>
+    <t>2020-10-05</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1357,11 +1361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I248"/>
+  <dimension ref="A1:I249"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A248" sqref="A248"/>
+      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A249" sqref="A249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5536,7 +5540,7 @@
         <v>96</v>
       </c>
       <c r="E245" s="6">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5588,6 +5592,23 @@
       </c>
       <c r="E248" s="6">
         <v>138</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="B249" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D249" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E249" s="6">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="258">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -895,6 +895,10 @@
   </si>
   <si>
     <t>2020-10-05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-10-06</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1361,11 +1365,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I249"/>
+  <dimension ref="A1:I250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A249" sqref="A249"/>
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I245" sqref="I245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5595,20 +5599,37 @@
       </c>
     </row>
     <row r="249" spans="1:5">
-      <c r="A249" s="16" t="s">
+      <c r="A249" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="B249" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C249" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D249" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E249" s="6">
+      <c r="B249" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D249" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E249" s="5">
         <v>217</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="B250" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D250" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E250" s="5">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="259">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -900,6 +900,9 @@
   <si>
     <t>2020-10-06</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-10-07</t>
   </si>
 </sst>
 </file>
@@ -1365,11 +1368,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I250"/>
+  <dimension ref="A1:I251"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I245" sqref="I245"/>
+      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H246" sqref="H246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5632,6 +5635,23 @@
         <v>167</v>
       </c>
     </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B251" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D251" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E251" s="5">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="260">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -903,6 +903,10 @@
   </si>
   <si>
     <t>2020-10-07</t>
+  </si>
+  <si>
+    <t>2020-10-08</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1368,11 +1372,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I251"/>
+  <dimension ref="A1:I252"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H246" sqref="H246"/>
+      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G249" sqref="G249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5652,6 +5656,23 @@
         <v>158</v>
       </c>
     </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B252" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D252" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E252" s="5">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="263">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -907,6 +907,15 @@
   <si>
     <t>2020-10-08</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-10-09</t>
+  </si>
+  <si>
+    <t>2020-10-10</t>
+  </si>
+  <si>
+    <t>2020-10-11</t>
   </si>
 </sst>
 </file>
@@ -1372,11 +1381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I252"/>
+  <dimension ref="A1:I255"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G249" sqref="G249"/>
+      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D251" sqref="D251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5673,6 +5682,57 @@
         <v>174</v>
       </c>
     </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B253" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D253" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E253" s="5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B254" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D254" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E254" s="5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B255" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D255" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E255" s="5">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="266">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -916,6 +916,15 @@
   </si>
   <si>
     <t>2020-10-11</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>2020-10-14</t>
   </si>
 </sst>
 </file>
@@ -1381,11 +1390,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I255"/>
+  <dimension ref="A1:I258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D251" sqref="D251"/>
+      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B262" sqref="B262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5695,7 +5704,7 @@
       <c r="D253" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E253" s="5">
+      <c r="E253" s="3">
         <v>159</v>
       </c>
     </row>
@@ -5712,7 +5721,7 @@
       <c r="D254" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E254" s="5">
+      <c r="E254" s="3">
         <v>126</v>
       </c>
     </row>
@@ -5729,8 +5738,59 @@
       <c r="D255" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E255" s="5">
+      <c r="E255" s="3">
         <v>107</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B256" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D256" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E256" s="5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B257" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D257" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E257" s="5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B258" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D258" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E258" s="5">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="267">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -925,6 +925,9 @@
   </si>
   <si>
     <t>2020-10-14</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
   </si>
 </sst>
 </file>
@@ -1390,11 +1393,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I258"/>
+  <dimension ref="A1:I259"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B262" sqref="B262"/>
+      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B263" sqref="B263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5793,6 +5796,23 @@
         <v>140</v>
       </c>
     </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B259" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D259" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E259" s="5">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="272">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -928,6 +928,21 @@
   </si>
   <si>
     <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>2020-10-16</t>
+  </si>
+  <si>
+    <t>2020-10-17</t>
+  </si>
+  <si>
+    <t>2020-10-18</t>
+  </si>
+  <si>
+    <t>2020-10-19</t>
+  </si>
+  <si>
+    <t>2020-10-20</t>
   </si>
 </sst>
 </file>
@@ -1393,11 +1408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I259"/>
+  <dimension ref="A1:I264"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B263" sqref="B263"/>
+      <selection pane="bottomLeft" activeCell="C267" sqref="C267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5813,6 +5828,91 @@
         <v>145</v>
       </c>
     </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B260" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D260" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E260" s="5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B261" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D261" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E261" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B262" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D262" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E262" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B263" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D263" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E263" s="5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B264" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D264" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E264" s="5">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="274">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -943,6 +943,12 @@
   </si>
   <si>
     <t>2020-10-20</t>
+  </si>
+  <si>
+    <t>2020-10-21</t>
+  </si>
+  <si>
+    <t>2020-10-22</t>
   </si>
 </sst>
 </file>
@@ -1408,11 +1414,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I264"/>
+  <dimension ref="A1:I266"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C267" sqref="C267"/>
+      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C270" sqref="C270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5913,6 +5919,40 @@
         <v>106</v>
       </c>
     </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B265" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D265" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E265" s="5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B266" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D266" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E266" s="5">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="277">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -949,6 +949,15 @@
   </si>
   <si>
     <t>2020-10-22</t>
+  </si>
+  <si>
+    <t>2020-10-23</t>
+  </si>
+  <si>
+    <t>2020-10-24</t>
+  </si>
+  <si>
+    <t>2020-10-25</t>
   </si>
 </sst>
 </file>
@@ -1414,11 +1423,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I266"/>
+  <dimension ref="A1:I269"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C270" sqref="C270"/>
+      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B273" sqref="B273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5953,6 +5962,57 @@
         <v>118</v>
       </c>
     </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B267" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D267" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E267" s="5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B268" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D268" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E268" s="5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B269" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D269" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E269" s="5">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7215"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="279">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -958,6 +958,12 @@
   </si>
   <si>
     <t>2020-10-25</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-10-27</t>
   </si>
 </sst>
 </file>
@@ -1423,11 +1429,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I269"/>
+  <dimension ref="A1:I271"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B273" sqref="B273"/>
+      <selection pane="bottomLeft" activeCell="A273" sqref="A273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6013,6 +6019,40 @@
         <v>62</v>
       </c>
     </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B270" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D270" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E270" s="11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="B271" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D271" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E271" s="5">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7215"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="280">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -964,6 +964,9 @@
   </si>
   <si>
     <t>2020-10-27</t>
+  </si>
+  <si>
+    <t>2020-10-28</t>
   </si>
 </sst>
 </file>
@@ -1429,11 +1432,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I271"/>
+  <dimension ref="A1:I272"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A273" sqref="A273"/>
+      <selection pane="bottomLeft" activeCell="B275" sqref="B275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6032,7 +6035,7 @@
       <c r="D270" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E270" s="11">
+      <c r="E270" s="5">
         <v>134</v>
       </c>
     </row>
@@ -6051,6 +6054,23 @@
       </c>
       <c r="E271" s="5">
         <v>112</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B272" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D272" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E272" s="5">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="281">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -967,6 +967,9 @@
   </si>
   <si>
     <t>2020-10-28</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
   </si>
 </sst>
 </file>
@@ -1432,11 +1435,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I272"/>
+  <dimension ref="A1:I273"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B275" sqref="B275"/>
+      <selection pane="bottomLeft" activeCell="B276" sqref="B276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6073,6 +6076,23 @@
         <v>114</v>
       </c>
     </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B273" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D273" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E273" s="5">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="283">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -970,6 +970,12 @@
   </si>
   <si>
     <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>2020-10-30</t>
+  </si>
+  <si>
+    <t>2020-10-31</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1038,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1105,11 +1111,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1141,6 +1156,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1435,11 +1451,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I273"/>
+  <dimension ref="A1:I276"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B276" sqref="B276"/>
+      <selection pane="bottomLeft" activeCell="B269" sqref="B269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1481,7 +1497,7 @@
       <c r="D2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1498,7 +1514,7 @@
       <c r="D3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="20"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -1513,7 +1529,7 @@
       <c r="D4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
@@ -6076,7 +6092,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:7">
       <c r="A273" s="12" t="s">
         <v>280</v>
       </c>
@@ -6092,6 +6108,49 @@
       <c r="E273" s="5">
         <v>76</v>
       </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B274" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D274" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E274" s="5">
+        <v>96</v>
+      </c>
+      <c r="F274" s="11"/>
+      <c r="G274" s="11"/>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B275" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D275" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E275" s="5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="11"/>
+      <c r="B276" s="19"/>
+      <c r="C276" s="19"/>
+      <c r="D276" s="11"/>
+      <c r="E276" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="288">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -976,6 +976,22 @@
   </si>
   <si>
     <t>2020-10-31</t>
+  </si>
+  <si>
+    <t>2020-11-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-11-02</t>
+  </si>
+  <si>
+    <t>2020-11-03</t>
+  </si>
+  <si>
+    <t>2020-11-04</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1054,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1111,20 +1127,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1156,7 +1163,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1451,11 +1457,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I276"/>
+  <dimension ref="A1:I281"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B269" sqref="B269"/>
+      <pane ySplit="1" topLeftCell="A265" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B267" sqref="B267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1497,7 +1503,7 @@
       <c r="D2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1514,7 +1520,7 @@
       <c r="D3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -1529,7 +1535,7 @@
       <c r="D4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
@@ -5820,7 +5826,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:6">
       <c r="A257" s="12" t="s">
         <v>264</v>
       </c>
@@ -5837,7 +5843,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:6">
       <c r="A258" s="12" t="s">
         <v>265</v>
       </c>
@@ -5854,7 +5860,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:6">
       <c r="A259" s="12" t="s">
         <v>266</v>
       </c>
@@ -5871,7 +5877,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:6">
       <c r="A260" s="12" t="s">
         <v>267</v>
       </c>
@@ -5888,7 +5894,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:6">
       <c r="A261" s="12" t="s">
         <v>268</v>
       </c>
@@ -5905,7 +5911,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:6">
       <c r="A262" s="12" t="s">
         <v>269</v>
       </c>
@@ -5922,7 +5928,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:6">
       <c r="A263" s="12" t="s">
         <v>270</v>
       </c>
@@ -5939,7 +5945,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:6">
       <c r="A264" s="12" t="s">
         <v>271</v>
       </c>
@@ -5956,7 +5962,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:6">
       <c r="A265" s="12" t="s">
         <v>272</v>
       </c>
@@ -5973,7 +5979,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:6">
       <c r="A266" s="12" t="s">
         <v>273</v>
       </c>
@@ -5990,7 +5996,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:6">
       <c r="A267" s="12" t="s">
         <v>274</v>
       </c>
@@ -6007,7 +6013,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:6">
       <c r="A268" s="12" t="s">
         <v>275</v>
       </c>
@@ -6024,7 +6030,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:6">
       <c r="A269" s="12" t="s">
         <v>276</v>
       </c>
@@ -6041,7 +6047,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:6">
       <c r="A270" s="12" t="s">
         <v>277</v>
       </c>
@@ -6058,7 +6064,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:6">
       <c r="A271" s="12" t="s">
         <v>278</v>
       </c>
@@ -6075,7 +6081,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:6">
       <c r="A272" s="12" t="s">
         <v>279</v>
       </c>
@@ -6091,8 +6097,9 @@
       <c r="E272" s="5">
         <v>114</v>
       </c>
-    </row>
-    <row r="273" spans="1:7">
+      <c r="F272" s="11"/>
+    </row>
+    <row r="273" spans="1:6">
       <c r="A273" s="12" t="s">
         <v>280</v>
       </c>
@@ -6108,8 +6115,9 @@
       <c r="E273" s="5">
         <v>76</v>
       </c>
-    </row>
-    <row r="274" spans="1:7">
+      <c r="F273" s="11"/>
+    </row>
+    <row r="274" spans="1:6">
       <c r="A274" s="12" t="s">
         <v>281</v>
       </c>
@@ -6126,9 +6134,8 @@
         <v>96</v>
       </c>
       <c r="F274" s="11"/>
-      <c r="G274" s="11"/>
-    </row>
-    <row r="275" spans="1:7">
+    </row>
+    <row r="275" spans="1:6">
       <c r="A275" s="12" t="s">
         <v>282</v>
       </c>
@@ -6144,13 +6151,105 @@
       <c r="E275" s="5">
         <v>79</v>
       </c>
-    </row>
-    <row r="276" spans="1:7">
-      <c r="A276" s="11"/>
-      <c r="B276" s="19"/>
-      <c r="C276" s="19"/>
-      <c r="D276" s="11"/>
-      <c r="E276" s="11"/>
+      <c r="F275" s="11"/>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B276" s="5">
+        <v>430006</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D276" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E276" s="5">
+        <v>81</v>
+      </c>
+      <c r="F276" s="11"/>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B277" s="5">
+        <v>430007</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D277" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E277" s="5">
+        <v>113</v>
+      </c>
+      <c r="F277" s="11"/>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B278" s="5">
+        <v>430008</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D278" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E278" s="5">
+        <v>92</v>
+      </c>
+      <c r="F278" s="11"/>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B279" s="5">
+        <v>430009</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D279" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E279" s="5">
+        <v>142</v>
+      </c>
+      <c r="F279" s="11"/>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B280" s="5">
+        <v>430010</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D280" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E280" s="5">
+        <v>75</v>
+      </c>
+      <c r="F280" s="11"/>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="11"/>
+      <c r="B281" s="11"/>
+      <c r="C281" s="11"/>
+      <c r="D281" s="11"/>
+      <c r="E281" s="11"/>
+      <c r="F281" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
-    <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
+    <sheet name="1112相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">帰国者・接触者相談センター相談件数!$A$1:$E$220</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">帰国者・接触者相談センター相談件数!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1112相談件数'!$A$1:$E$220</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'1112相談件数'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="294">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -992,6 +992,24 @@
   </si>
   <si>
     <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>2020-11-06</t>
+  </si>
+  <si>
+    <t>2020-11-07</t>
+  </si>
+  <si>
+    <t>2020-11-08</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>2020-11-10</t>
+  </si>
+  <si>
+    <t>2020-11-11</t>
   </si>
 </sst>
 </file>
@@ -1457,11 +1475,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I281"/>
+  <dimension ref="A1:I286"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A265" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B267" sqref="B267"/>
+      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A286" sqref="A286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5826,7 +5844,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:5">
       <c r="A257" s="12" t="s">
         <v>264</v>
       </c>
@@ -5843,7 +5861,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:5">
       <c r="A258" s="12" t="s">
         <v>265</v>
       </c>
@@ -5860,7 +5878,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:5">
       <c r="A259" s="12" t="s">
         <v>266</v>
       </c>
@@ -5877,7 +5895,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:5">
       <c r="A260" s="12" t="s">
         <v>267</v>
       </c>
@@ -5894,7 +5912,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:5">
       <c r="A261" s="12" t="s">
         <v>268</v>
       </c>
@@ -5911,7 +5929,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:5">
       <c r="A262" s="12" t="s">
         <v>269</v>
       </c>
@@ -5928,7 +5946,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:5">
       <c r="A263" s="12" t="s">
         <v>270</v>
       </c>
@@ -5945,7 +5963,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:5">
       <c r="A264" s="12" t="s">
         <v>271</v>
       </c>
@@ -5962,7 +5980,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:5">
       <c r="A265" s="12" t="s">
         <v>272</v>
       </c>
@@ -5979,7 +5997,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:5">
       <c r="A266" s="12" t="s">
         <v>273</v>
       </c>
@@ -5996,7 +6014,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:5">
       <c r="A267" s="12" t="s">
         <v>274</v>
       </c>
@@ -6013,7 +6031,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:5">
       <c r="A268" s="12" t="s">
         <v>275</v>
       </c>
@@ -6030,7 +6048,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:5">
       <c r="A269" s="12" t="s">
         <v>276</v>
       </c>
@@ -6047,7 +6065,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:5">
       <c r="A270" s="12" t="s">
         <v>277</v>
       </c>
@@ -6064,7 +6082,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:5">
       <c r="A271" s="12" t="s">
         <v>278</v>
       </c>
@@ -6081,7 +6099,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:5">
       <c r="A272" s="12" t="s">
         <v>279</v>
       </c>
@@ -6097,9 +6115,8 @@
       <c r="E272" s="5">
         <v>114</v>
       </c>
-      <c r="F272" s="11"/>
-    </row>
-    <row r="273" spans="1:6">
+    </row>
+    <row r="273" spans="1:5">
       <c r="A273" s="12" t="s">
         <v>280</v>
       </c>
@@ -6115,9 +6132,8 @@
       <c r="E273" s="5">
         <v>76</v>
       </c>
-      <c r="F273" s="11"/>
-    </row>
-    <row r="274" spans="1:6">
+    </row>
+    <row r="274" spans="1:5">
       <c r="A274" s="12" t="s">
         <v>281</v>
       </c>
@@ -6133,9 +6149,8 @@
       <c r="E274" s="5">
         <v>96</v>
       </c>
-      <c r="F274" s="11"/>
-    </row>
-    <row r="275" spans="1:6">
+    </row>
+    <row r="275" spans="1:5">
       <c r="A275" s="12" t="s">
         <v>282</v>
       </c>
@@ -6151,105 +6166,193 @@
       <c r="E275" s="5">
         <v>79</v>
       </c>
-      <c r="F275" s="11"/>
-    </row>
-    <row r="276" spans="1:6">
-      <c r="A276" s="12" t="s">
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="B276" s="5">
-        <v>430006</v>
-      </c>
-      <c r="C276" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D276" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E276" s="5">
+      <c r="B276" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D276" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E276" s="6">
         <v>81</v>
       </c>
-      <c r="F276" s="11"/>
-    </row>
-    <row r="277" spans="1:6">
-      <c r="A277" s="12" t="s">
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="B277" s="5">
-        <v>430007</v>
-      </c>
-      <c r="C277" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D277" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E277" s="5">
-        <v>113</v>
-      </c>
-      <c r="F277" s="11"/>
-    </row>
-    <row r="278" spans="1:6">
-      <c r="A278" s="12" t="s">
+      <c r="B277" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D277" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E277" s="6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="B278" s="5">
-        <v>430008</v>
-      </c>
-      <c r="C278" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D278" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E278" s="5">
-        <v>92</v>
-      </c>
-      <c r="F278" s="11"/>
-    </row>
-    <row r="279" spans="1:6">
-      <c r="A279" s="12" t="s">
+      <c r="B278" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D278" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E278" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="B279" s="5">
-        <v>430009</v>
-      </c>
-      <c r="C279" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D279" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E279" s="5">
-        <v>142</v>
-      </c>
-      <c r="F279" s="11"/>
-    </row>
-    <row r="280" spans="1:6">
-      <c r="A280" s="12" t="s">
+      <c r="B279" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D279" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E279" s="6">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="B280" s="5">
-        <v>430010</v>
-      </c>
-      <c r="C280" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D280" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E280" s="5">
+      <c r="B280" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D280" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E280" s="6">
         <v>75</v>
       </c>
-      <c r="F280" s="11"/>
-    </row>
-    <row r="281" spans="1:6">
-      <c r="A281" s="11"/>
-      <c r="B281" s="11"/>
-      <c r="C281" s="11"/>
-      <c r="D281" s="11"/>
-      <c r="E281" s="11"/>
-      <c r="F281" s="11"/>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="B281" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C281" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D281" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E281" s="6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="B282" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C282" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D282" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E282" s="6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="B283" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D283" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E283" s="6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="B284" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D284" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E284" s="6">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="B285" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D285" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E285" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="B286" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D286" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E286" s="6">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -7,11 +7,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
-    <sheet name="1112相談件数" sheetId="1" r:id="rId1"/>
+    <sheet name="1113帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1112相談件数'!$A$1:$E$220</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'1112相談件数'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1113帰国者・接触者相談センター相談件数'!$A$1:$E$220</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'1113帰国者・接触者相談センター相談件数'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="295">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -1010,6 +1010,9 @@
   </si>
   <si>
     <t>2020-11-11</t>
+  </si>
+  <si>
+    <t>2020-11-12</t>
   </si>
 </sst>
 </file>
@@ -1475,11 +1478,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I286"/>
+  <dimension ref="A1:I287"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A286" sqref="A286"/>
+      <selection pane="bottomLeft" activeCell="A287" sqref="A287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6354,6 +6357,23 @@
         <v>90</v>
       </c>
     </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="B287" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C287" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D287" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E287" s="6">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
   </bookViews>
   <sheets>
-    <sheet name="1113帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
+    <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1113帰国者・接触者相談センター相談件数'!$A$1:$E$220</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'1113帰国者・接触者相談センター相談件数'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">帰国者・接触者相談センター相談件数!$A$1:$E$220</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">帰国者・接触者相談センター相談件数!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="300">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -1013,6 +1013,21 @@
   </si>
   <si>
     <t>2020-11-12</t>
+  </si>
+  <si>
+    <t>2020-11-13</t>
+  </si>
+  <si>
+    <t>2020-11-14</t>
+  </si>
+  <si>
+    <t>2020-11-15</t>
+  </si>
+  <si>
+    <t>2020-11-16</t>
+  </si>
+  <si>
+    <t>2020-11-17</t>
   </si>
 </sst>
 </file>
@@ -1478,11 +1493,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I287"/>
+  <dimension ref="A1:I293"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A287" sqref="A287"/>
+      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A283" sqref="A283:F293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5847,7 +5862,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:7">
       <c r="A257" s="12" t="s">
         <v>264</v>
       </c>
@@ -5864,7 +5879,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:7">
       <c r="A258" s="12" t="s">
         <v>265</v>
       </c>
@@ -5881,7 +5896,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:7">
       <c r="A259" s="12" t="s">
         <v>266</v>
       </c>
@@ -5898,7 +5913,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:7">
       <c r="A260" s="12" t="s">
         <v>267</v>
       </c>
@@ -5915,7 +5930,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:7">
       <c r="A261" s="12" t="s">
         <v>268</v>
       </c>
@@ -5932,7 +5947,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:7">
       <c r="A262" s="12" t="s">
         <v>269</v>
       </c>
@@ -5949,7 +5964,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:7">
       <c r="A263" s="12" t="s">
         <v>270</v>
       </c>
@@ -5966,7 +5981,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:7">
       <c r="A264" s="12" t="s">
         <v>271</v>
       </c>
@@ -5983,7 +5998,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:7">
       <c r="A265" s="12" t="s">
         <v>272</v>
       </c>
@@ -6000,7 +6015,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:7">
       <c r="A266" s="12" t="s">
         <v>273</v>
       </c>
@@ -6017,7 +6032,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:7">
       <c r="A267" s="12" t="s">
         <v>274</v>
       </c>
@@ -6034,7 +6049,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:7">
       <c r="A268" s="12" t="s">
         <v>275</v>
       </c>
@@ -6051,7 +6066,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:7">
       <c r="A269" s="12" t="s">
         <v>276</v>
       </c>
@@ -6068,7 +6083,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:7">
       <c r="A270" s="12" t="s">
         <v>277</v>
       </c>
@@ -6085,7 +6100,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:7">
       <c r="A271" s="12" t="s">
         <v>278</v>
       </c>
@@ -6102,7 +6117,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:7">
       <c r="A272" s="12" t="s">
         <v>279</v>
       </c>
@@ -6118,8 +6133,10 @@
       <c r="E272" s="5">
         <v>114</v>
       </c>
-    </row>
-    <row r="273" spans="1:5">
+      <c r="F272" s="11"/>
+      <c r="G272" s="11"/>
+    </row>
+    <row r="273" spans="1:7">
       <c r="A273" s="12" t="s">
         <v>280</v>
       </c>
@@ -6135,8 +6152,10 @@
       <c r="E273" s="5">
         <v>76</v>
       </c>
-    </row>
-    <row r="274" spans="1:5">
+      <c r="F273" s="11"/>
+      <c r="G273" s="11"/>
+    </row>
+    <row r="274" spans="1:7">
       <c r="A274" s="12" t="s">
         <v>281</v>
       </c>
@@ -6152,8 +6171,10 @@
       <c r="E274" s="5">
         <v>96</v>
       </c>
-    </row>
-    <row r="275" spans="1:5">
+      <c r="F274" s="11"/>
+      <c r="G274" s="11"/>
+    </row>
+    <row r="275" spans="1:7">
       <c r="A275" s="12" t="s">
         <v>282</v>
       </c>
@@ -6169,210 +6190,329 @@
       <c r="E275" s="5">
         <v>79</v>
       </c>
-    </row>
-    <row r="276" spans="1:5">
-      <c r="A276" s="16" t="s">
+      <c r="F275" s="11"/>
+      <c r="G275" s="11"/>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="B276" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C276" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D276" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E276" s="6">
+      <c r="B276" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D276" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E276" s="5">
         <v>81</v>
       </c>
-    </row>
-    <row r="277" spans="1:5">
-      <c r="A277" s="16" t="s">
+      <c r="F276" s="11"/>
+      <c r="G276" s="11"/>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="B277" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C277" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D277" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E277" s="6">
+      <c r="B277" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D277" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E277" s="5">
+        <v>113</v>
+      </c>
+      <c r="F277" s="11"/>
+      <c r="G277" s="11"/>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B278" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D278" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E278" s="5">
+        <v>92</v>
+      </c>
+      <c r="F278" s="11"/>
+      <c r="G278" s="11"/>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B279" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D279" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E279" s="5">
+        <v>142</v>
+      </c>
+      <c r="F279" s="11"/>
+      <c r="G279" s="11"/>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B280" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D280" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E280" s="5">
+        <v>75</v>
+      </c>
+      <c r="F280" s="11"/>
+      <c r="G280" s="11"/>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B281" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D281" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E281" s="5">
+        <v>140</v>
+      </c>
+      <c r="F281" s="11"/>
+      <c r="G281" s="11"/>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B282" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D282" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E282" s="5">
+        <v>140</v>
+      </c>
+      <c r="F282" s="11"/>
+      <c r="G282" s="11"/>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="B283" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D283" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E283" s="5">
+        <v>119</v>
+      </c>
+      <c r="F283" s="11"/>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="B284" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D284" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E284" s="5">
+        <v>121</v>
+      </c>
+      <c r="F284" s="11"/>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B285" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D285" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E285" s="5">
+        <v>79</v>
+      </c>
+      <c r="F285" s="11"/>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B286" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D286" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E286" s="5">
+        <v>90</v>
+      </c>
+      <c r="F286" s="11"/>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B287" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D287" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E287" s="5">
+        <v>101</v>
+      </c>
+      <c r="F287" s="11"/>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B288" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D288" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E288" s="5">
+        <v>91</v>
+      </c>
+      <c r="F288" s="11"/>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B289" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D289" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E289" s="5">
+        <v>82</v>
+      </c>
+      <c r="F289" s="11"/>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B290" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D290" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E290" s="5">
+        <v>103</v>
+      </c>
+      <c r="F290" s="11"/>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="B291" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D291" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E291" s="5">
+        <v>161</v>
+      </c>
+      <c r="F291" s="11"/>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B292" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D292" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E292" s="5">
         <v>111</v>
       </c>
-    </row>
-    <row r="278" spans="1:5">
-      <c r="A278" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="B278" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C278" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D278" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E278" s="6">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
-      <c r="A279" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="B279" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C279" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D279" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E279" s="6">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
-      <c r="A280" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="B280" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C280" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D280" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E280" s="6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
-      <c r="A281" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="B281" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C281" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D281" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E281" s="6">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
-      <c r="A282" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="B282" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C282" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D282" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E282" s="6">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
-      <c r="A283" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="B283" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C283" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D283" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E283" s="6">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
-      <c r="A284" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="B284" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C284" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D284" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E284" s="6">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
-      <c r="A285" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="B285" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C285" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D285" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E285" s="6">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
-      <c r="A286" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="B286" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C286" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D286" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E286" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
-      <c r="A287" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="B287" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C287" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D287" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E287" s="6">
-        <v>101</v>
-      </c>
+      <c r="F292" s="11"/>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="11"/>
+      <c r="B293" s="11"/>
+      <c r="C293" s="11"/>
+      <c r="D293" s="11"/>
+      <c r="E293" s="11"/>
+      <c r="F293" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="312">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -1028,6 +1028,42 @@
   </si>
   <si>
     <t>2020-11-17</t>
+  </si>
+  <si>
+    <t>2020-11-18</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>2020-11-21</t>
+  </si>
+  <si>
+    <t>2020-11-22</t>
+  </si>
+  <si>
+    <t>2020-11-23</t>
+  </si>
+  <si>
+    <t>2020-11-24</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>2020-11-26</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-11-28</t>
+  </si>
+  <si>
+    <t>2020-11-29</t>
   </si>
 </sst>
 </file>
@@ -1493,11 +1529,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I293"/>
+  <dimension ref="A1:I308"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A283" sqref="A283:F293"/>
+      <pane ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G308" sqref="A297:G308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6136,7 +6172,7 @@
       <c r="F272" s="11"/>
       <c r="G272" s="11"/>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:8">
       <c r="A273" s="12" t="s">
         <v>280</v>
       </c>
@@ -6155,7 +6191,7 @@
       <c r="F273" s="11"/>
       <c r="G273" s="11"/>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:8">
       <c r="A274" s="12" t="s">
         <v>281</v>
       </c>
@@ -6174,7 +6210,7 @@
       <c r="F274" s="11"/>
       <c r="G274" s="11"/>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:8">
       <c r="A275" s="12" t="s">
         <v>282</v>
       </c>
@@ -6193,7 +6229,7 @@
       <c r="F275" s="11"/>
       <c r="G275" s="11"/>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:8">
       <c r="A276" s="12" t="s">
         <v>283</v>
       </c>
@@ -6212,7 +6248,7 @@
       <c r="F276" s="11"/>
       <c r="G276" s="11"/>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:8">
       <c r="A277" s="12" t="s">
         <v>284</v>
       </c>
@@ -6231,7 +6267,7 @@
       <c r="F277" s="11"/>
       <c r="G277" s="11"/>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:8">
       <c r="A278" s="12" t="s">
         <v>285</v>
       </c>
@@ -6250,7 +6286,7 @@
       <c r="F278" s="11"/>
       <c r="G278" s="11"/>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:8">
       <c r="A279" s="12" t="s">
         <v>286</v>
       </c>
@@ -6269,7 +6305,7 @@
       <c r="F279" s="11"/>
       <c r="G279" s="11"/>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:8">
       <c r="A280" s="12" t="s">
         <v>287</v>
       </c>
@@ -6288,7 +6324,7 @@
       <c r="F280" s="11"/>
       <c r="G280" s="11"/>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:8">
       <c r="A281" s="12" t="s">
         <v>288</v>
       </c>
@@ -6307,7 +6343,7 @@
       <c r="F281" s="11"/>
       <c r="G281" s="11"/>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:8">
       <c r="A282" s="12" t="s">
         <v>289</v>
       </c>
@@ -6326,7 +6362,7 @@
       <c r="F282" s="11"/>
       <c r="G282" s="11"/>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:8">
       <c r="A283" s="12" t="s">
         <v>290</v>
       </c>
@@ -6342,9 +6378,8 @@
       <c r="E283" s="5">
         <v>119</v>
       </c>
-      <c r="F283" s="11"/>
-    </row>
-    <row r="284" spans="1:7">
+    </row>
+    <row r="284" spans="1:8">
       <c r="A284" s="12" t="s">
         <v>291</v>
       </c>
@@ -6360,9 +6395,8 @@
       <c r="E284" s="5">
         <v>121</v>
       </c>
-      <c r="F284" s="11"/>
-    </row>
-    <row r="285" spans="1:7">
+    </row>
+    <row r="285" spans="1:8">
       <c r="A285" s="12" t="s">
         <v>292</v>
       </c>
@@ -6378,9 +6412,8 @@
       <c r="E285" s="5">
         <v>79</v>
       </c>
-      <c r="F285" s="11"/>
-    </row>
-    <row r="286" spans="1:7">
+    </row>
+    <row r="286" spans="1:8">
       <c r="A286" s="12" t="s">
         <v>293</v>
       </c>
@@ -6397,8 +6430,10 @@
         <v>90</v>
       </c>
       <c r="F286" s="11"/>
-    </row>
-    <row r="287" spans="1:7">
+      <c r="G286" s="11"/>
+      <c r="H286" s="11"/>
+    </row>
+    <row r="287" spans="1:8">
       <c r="A287" s="12" t="s">
         <v>294</v>
       </c>
@@ -6415,8 +6450,10 @@
         <v>101</v>
       </c>
       <c r="F287" s="11"/>
-    </row>
-    <row r="288" spans="1:7">
+      <c r="G287" s="11"/>
+      <c r="H287" s="11"/>
+    </row>
+    <row r="288" spans="1:8">
       <c r="A288" s="12" t="s">
         <v>295</v>
       </c>
@@ -6433,8 +6470,10 @@
         <v>91</v>
       </c>
       <c r="F288" s="11"/>
-    </row>
-    <row r="289" spans="1:6">
+      <c r="G288" s="11"/>
+      <c r="H288" s="11"/>
+    </row>
+    <row r="289" spans="1:8">
       <c r="A289" s="12" t="s">
         <v>296</v>
       </c>
@@ -6451,8 +6490,10 @@
         <v>82</v>
       </c>
       <c r="F289" s="11"/>
-    </row>
-    <row r="290" spans="1:6">
+      <c r="G289" s="11"/>
+      <c r="H289" s="11"/>
+    </row>
+    <row r="290" spans="1:8">
       <c r="A290" s="12" t="s">
         <v>297</v>
       </c>
@@ -6469,8 +6510,10 @@
         <v>103</v>
       </c>
       <c r="F290" s="11"/>
-    </row>
-    <row r="291" spans="1:6">
+      <c r="G290" s="11"/>
+      <c r="H290" s="11"/>
+    </row>
+    <row r="291" spans="1:8">
       <c r="A291" s="12" t="s">
         <v>298</v>
       </c>
@@ -6487,8 +6530,10 @@
         <v>161</v>
       </c>
       <c r="F291" s="11"/>
-    </row>
-    <row r="292" spans="1:6">
+      <c r="G291" s="11"/>
+      <c r="H291" s="11"/>
+    </row>
+    <row r="292" spans="1:8">
       <c r="A292" s="12" t="s">
         <v>299</v>
       </c>
@@ -6505,14 +6550,268 @@
         <v>111</v>
       </c>
       <c r="F292" s="11"/>
-    </row>
-    <row r="293" spans="1:6">
-      <c r="A293" s="11"/>
-      <c r="B293" s="11"/>
-      <c r="C293" s="11"/>
-      <c r="D293" s="11"/>
-      <c r="E293" s="11"/>
+      <c r="G292" s="11"/>
+      <c r="H292" s="11"/>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B293" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D293" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E293" s="5">
+        <v>132</v>
+      </c>
       <c r="F293" s="11"/>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B294" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D294" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E294" s="5">
+        <v>117</v>
+      </c>
+      <c r="F294" s="11"/>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="B295" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D295" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E295" s="5">
+        <v>78</v>
+      </c>
+      <c r="F295" s="11"/>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="B296" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D296" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E296" s="5">
+        <v>99</v>
+      </c>
+      <c r="F296" s="11"/>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B297" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D297" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E297" s="5">
+        <v>106</v>
+      </c>
+      <c r="F297" s="11"/>
+      <c r="G297" s="11"/>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="B298" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D298" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E298" s="5">
+        <v>108</v>
+      </c>
+      <c r="F298" s="11"/>
+      <c r="G298" s="11"/>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B299" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D299" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E299" s="5">
+        <v>104</v>
+      </c>
+      <c r="F299" s="11"/>
+      <c r="G299" s="11"/>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B300" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D300" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E300" s="5">
+        <v>107</v>
+      </c>
+      <c r="F300" s="11"/>
+      <c r="G300" s="11"/>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B301" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D301" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E301" s="5">
+        <v>84</v>
+      </c>
+      <c r="F301" s="11"/>
+      <c r="G301" s="11"/>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="B302" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D302" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E302" s="5">
+        <v>85</v>
+      </c>
+      <c r="F302" s="11"/>
+      <c r="G302" s="11"/>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="B303" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D303" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E303" s="5">
+        <v>111</v>
+      </c>
+      <c r="F303" s="11"/>
+      <c r="G303" s="11"/>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="B304" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D304" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E304" s="5">
+        <v>106</v>
+      </c>
+      <c r="F304" s="11"/>
+      <c r="G304" s="11"/>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="11"/>
+      <c r="B305" s="11"/>
+      <c r="C305" s="11"/>
+      <c r="D305" s="11"/>
+      <c r="E305" s="11"/>
+      <c r="F305" s="11"/>
+      <c r="G305" s="11"/>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="11"/>
+      <c r="B306" s="11"/>
+      <c r="C306" s="11"/>
+      <c r="D306" s="11"/>
+      <c r="E306" s="11"/>
+      <c r="F306" s="11"/>
+      <c r="G306" s="11"/>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" s="11"/>
+      <c r="B307" s="11"/>
+      <c r="C307" s="11"/>
+      <c r="D307" s="11"/>
+      <c r="E307" s="11"/>
+      <c r="F307" s="11"/>
+      <c r="G307" s="11"/>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" s="11"/>
+      <c r="B308" s="11"/>
+      <c r="C308" s="11"/>
+      <c r="D308" s="11"/>
+      <c r="E308" s="11"/>
+      <c r="F308" s="11"/>
+      <c r="G308" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="313">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -1064,6 +1064,9 @@
   </si>
   <si>
     <t>2020-11-29</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
   </si>
 </sst>
 </file>
@@ -1529,11 +1532,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I308"/>
+  <dimension ref="A1:I309"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G308" sqref="A297:G308"/>
+      <selection pane="bottomLeft" activeCell="C310" sqref="C310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6473,7 +6476,7 @@
       <c r="G288" s="11"/>
       <c r="H288" s="11"/>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:9">
       <c r="A289" s="12" t="s">
         <v>296</v>
       </c>
@@ -6493,7 +6496,7 @@
       <c r="G289" s="11"/>
       <c r="H289" s="11"/>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:9">
       <c r="A290" s="12" t="s">
         <v>297</v>
       </c>
@@ -6513,7 +6516,7 @@
       <c r="G290" s="11"/>
       <c r="H290" s="11"/>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:9">
       <c r="A291" s="12" t="s">
         <v>298</v>
       </c>
@@ -6533,7 +6536,7 @@
       <c r="G291" s="11"/>
       <c r="H291" s="11"/>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:9">
       <c r="A292" s="12" t="s">
         <v>299</v>
       </c>
@@ -6553,7 +6556,7 @@
       <c r="G292" s="11"/>
       <c r="H292" s="11"/>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:9">
       <c r="A293" s="12" t="s">
         <v>300</v>
       </c>
@@ -6571,7 +6574,7 @@
       </c>
       <c r="F293" s="11"/>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:9">
       <c r="A294" s="12" t="s">
         <v>301</v>
       </c>
@@ -6589,7 +6592,7 @@
       </c>
       <c r="F294" s="11"/>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:9">
       <c r="A295" s="12" t="s">
         <v>302</v>
       </c>
@@ -6607,7 +6610,7 @@
       </c>
       <c r="F295" s="11"/>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:9">
       <c r="A296" s="12" t="s">
         <v>303</v>
       </c>
@@ -6625,7 +6628,7 @@
       </c>
       <c r="F296" s="11"/>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:9">
       <c r="A297" s="12" t="s">
         <v>304</v>
       </c>
@@ -6642,9 +6645,8 @@
         <v>106</v>
       </c>
       <c r="F297" s="11"/>
-      <c r="G297" s="11"/>
-    </row>
-    <row r="298" spans="1:8">
+    </row>
+    <row r="298" spans="1:9">
       <c r="A298" s="12" t="s">
         <v>305</v>
       </c>
@@ -6662,8 +6664,10 @@
       </c>
       <c r="F298" s="11"/>
       <c r="G298" s="11"/>
-    </row>
-    <row r="299" spans="1:8">
+      <c r="H298" s="11"/>
+      <c r="I298" s="11"/>
+    </row>
+    <row r="299" spans="1:9">
       <c r="A299" s="12" t="s">
         <v>306</v>
       </c>
@@ -6681,8 +6685,10 @@
       </c>
       <c r="F299" s="11"/>
       <c r="G299" s="11"/>
-    </row>
-    <row r="300" spans="1:8">
+      <c r="H299" s="11"/>
+      <c r="I299" s="11"/>
+    </row>
+    <row r="300" spans="1:9">
       <c r="A300" s="12" t="s">
         <v>307</v>
       </c>
@@ -6700,8 +6706,10 @@
       </c>
       <c r="F300" s="11"/>
       <c r="G300" s="11"/>
-    </row>
-    <row r="301" spans="1:8">
+      <c r="H300" s="11"/>
+      <c r="I300" s="11"/>
+    </row>
+    <row r="301" spans="1:9">
       <c r="A301" s="12" t="s">
         <v>308</v>
       </c>
@@ -6719,8 +6727,10 @@
       </c>
       <c r="F301" s="11"/>
       <c r="G301" s="11"/>
-    </row>
-    <row r="302" spans="1:8">
+      <c r="H301" s="11"/>
+      <c r="I301" s="11"/>
+    </row>
+    <row r="302" spans="1:9">
       <c r="A302" s="12" t="s">
         <v>309</v>
       </c>
@@ -6738,8 +6748,10 @@
       </c>
       <c r="F302" s="11"/>
       <c r="G302" s="11"/>
-    </row>
-    <row r="303" spans="1:8">
+      <c r="H302" s="11"/>
+      <c r="I302" s="11"/>
+    </row>
+    <row r="303" spans="1:9">
       <c r="A303" s="12" t="s">
         <v>310</v>
       </c>
@@ -6757,8 +6769,10 @@
       </c>
       <c r="F303" s="11"/>
       <c r="G303" s="11"/>
-    </row>
-    <row r="304" spans="1:8">
+      <c r="H303" s="11"/>
+      <c r="I303" s="11"/>
+    </row>
+    <row r="304" spans="1:9">
       <c r="A304" s="12" t="s">
         <v>311</v>
       </c>
@@ -6776,17 +6790,31 @@
       </c>
       <c r="F304" s="11"/>
       <c r="G304" s="11"/>
-    </row>
-    <row r="305" spans="1:7">
-      <c r="A305" s="11"/>
-      <c r="B305" s="11"/>
-      <c r="C305" s="11"/>
-      <c r="D305" s="11"/>
-      <c r="E305" s="11"/>
+      <c r="H304" s="11"/>
+      <c r="I304" s="11"/>
+    </row>
+    <row r="305" spans="1:9">
+      <c r="A305" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="B305" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D305" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E305" s="5">
+        <v>76</v>
+      </c>
       <c r="F305" s="11"/>
       <c r="G305" s="11"/>
-    </row>
-    <row r="306" spans="1:7">
+      <c r="H305" s="11"/>
+      <c r="I305" s="11"/>
+    </row>
+    <row r="306" spans="1:9">
       <c r="A306" s="11"/>
       <c r="B306" s="11"/>
       <c r="C306" s="11"/>
@@ -6794,8 +6822,10 @@
       <c r="E306" s="11"/>
       <c r="F306" s="11"/>
       <c r="G306" s="11"/>
-    </row>
-    <row r="307" spans="1:7">
+      <c r="H306" s="11"/>
+      <c r="I306" s="11"/>
+    </row>
+    <row r="307" spans="1:9">
       <c r="A307" s="11"/>
       <c r="B307" s="11"/>
       <c r="C307" s="11"/>
@@ -6803,8 +6833,10 @@
       <c r="E307" s="11"/>
       <c r="F307" s="11"/>
       <c r="G307" s="11"/>
-    </row>
-    <row r="308" spans="1:7">
+      <c r="H307" s="11"/>
+      <c r="I307" s="11"/>
+    </row>
+    <row r="308" spans="1:9">
       <c r="A308" s="11"/>
       <c r="B308" s="11"/>
       <c r="C308" s="11"/>
@@ -6812,6 +6844,19 @@
       <c r="E308" s="11"/>
       <c r="F308" s="11"/>
       <c r="G308" s="11"/>
+      <c r="H308" s="11"/>
+      <c r="I308" s="11"/>
+    </row>
+    <row r="309" spans="1:9">
+      <c r="A309" s="11"/>
+      <c r="B309" s="11"/>
+      <c r="C309" s="11"/>
+      <c r="D309" s="11"/>
+      <c r="E309" s="11"/>
+      <c r="F309" s="11"/>
+      <c r="G309" s="11"/>
+      <c r="H309" s="11"/>
+      <c r="I309" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -1532,11 +1532,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I309"/>
+  <dimension ref="A1:I305"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C310" sqref="C310"/>
+      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A305" sqref="A305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6476,7 +6476,7 @@
       <c r="G288" s="11"/>
       <c r="H288" s="11"/>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:8">
       <c r="A289" s="12" t="s">
         <v>296</v>
       </c>
@@ -6496,7 +6496,7 @@
       <c r="G289" s="11"/>
       <c r="H289" s="11"/>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:8">
       <c r="A290" s="12" t="s">
         <v>297</v>
       </c>
@@ -6516,7 +6516,7 @@
       <c r="G290" s="11"/>
       <c r="H290" s="11"/>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:8">
       <c r="A291" s="12" t="s">
         <v>298</v>
       </c>
@@ -6536,7 +6536,7 @@
       <c r="G291" s="11"/>
       <c r="H291" s="11"/>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:8">
       <c r="A292" s="12" t="s">
         <v>299</v>
       </c>
@@ -6556,7 +6556,7 @@
       <c r="G292" s="11"/>
       <c r="H292" s="11"/>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:8">
       <c r="A293" s="12" t="s">
         <v>300</v>
       </c>
@@ -6574,7 +6574,7 @@
       </c>
       <c r="F293" s="11"/>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:8">
       <c r="A294" s="12" t="s">
         <v>301</v>
       </c>
@@ -6592,7 +6592,7 @@
       </c>
       <c r="F294" s="11"/>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:8">
       <c r="A295" s="12" t="s">
         <v>302</v>
       </c>
@@ -6610,7 +6610,7 @@
       </c>
       <c r="F295" s="11"/>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:8">
       <c r="A296" s="12" t="s">
         <v>303</v>
       </c>
@@ -6628,7 +6628,7 @@
       </c>
       <c r="F296" s="11"/>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:8">
       <c r="A297" s="12" t="s">
         <v>304</v>
       </c>
@@ -6646,7 +6646,7 @@
       </c>
       <c r="F297" s="11"/>
     </row>
-    <row r="298" spans="1:9">
+    <row r="298" spans="1:8">
       <c r="A298" s="12" t="s">
         <v>305</v>
       </c>
@@ -6663,200 +6663,126 @@
         <v>108</v>
       </c>
       <c r="F298" s="11"/>
-      <c r="G298" s="11"/>
-      <c r="H298" s="11"/>
-      <c r="I298" s="11"/>
-    </row>
-    <row r="299" spans="1:9">
-      <c r="A299" s="12" t="s">
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="B299" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C299" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D299" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E299" s="5">
+      <c r="B299" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C299" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D299" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E299" s="6">
         <v>104</v>
       </c>
       <c r="F299" s="11"/>
-      <c r="G299" s="11"/>
-      <c r="H299" s="11"/>
-      <c r="I299" s="11"/>
-    </row>
-    <row r="300" spans="1:9">
-      <c r="A300" s="12" t="s">
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="B300" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C300" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D300" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E300" s="5">
+      <c r="B300" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C300" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D300" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E300" s="6">
         <v>107</v>
       </c>
-      <c r="F300" s="11"/>
-      <c r="G300" s="11"/>
-      <c r="H300" s="11"/>
-      <c r="I300" s="11"/>
-    </row>
-    <row r="301" spans="1:9">
-      <c r="A301" s="12" t="s">
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="B301" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C301" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D301" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E301" s="5">
+      <c r="B301" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C301" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D301" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E301" s="6">
         <v>84</v>
       </c>
-      <c r="F301" s="11"/>
-      <c r="G301" s="11"/>
-      <c r="H301" s="11"/>
-      <c r="I301" s="11"/>
-    </row>
-    <row r="302" spans="1:9">
-      <c r="A302" s="12" t="s">
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="B302" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C302" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D302" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E302" s="5">
+      <c r="B302" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C302" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D302" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E302" s="6">
         <v>85</v>
       </c>
-      <c r="F302" s="11"/>
-      <c r="G302" s="11"/>
-      <c r="H302" s="11"/>
-      <c r="I302" s="11"/>
-    </row>
-    <row r="303" spans="1:9">
-      <c r="A303" s="12" t="s">
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="B303" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C303" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D303" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E303" s="5">
+      <c r="B303" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C303" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D303" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E303" s="6">
         <v>111</v>
       </c>
-      <c r="F303" s="11"/>
-      <c r="G303" s="11"/>
-      <c r="H303" s="11"/>
-      <c r="I303" s="11"/>
-    </row>
-    <row r="304" spans="1:9">
-      <c r="A304" s="12" t="s">
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="B304" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C304" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D304" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E304" s="5">
+      <c r="B304" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C304" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D304" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E304" s="6">
         <v>106</v>
       </c>
-      <c r="F304" s="11"/>
-      <c r="G304" s="11"/>
-      <c r="H304" s="11"/>
-      <c r="I304" s="11"/>
-    </row>
-    <row r="305" spans="1:9">
-      <c r="A305" s="12" t="s">
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="B305" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C305" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D305" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E305" s="5">
+      <c r="B305" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C305" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D305" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E305" s="6">
         <v>76</v>
       </c>
-      <c r="F305" s="11"/>
-      <c r="G305" s="11"/>
-      <c r="H305" s="11"/>
-      <c r="I305" s="11"/>
-    </row>
-    <row r="306" spans="1:9">
-      <c r="A306" s="11"/>
-      <c r="B306" s="11"/>
-      <c r="C306" s="11"/>
-      <c r="D306" s="11"/>
-      <c r="E306" s="11"/>
-      <c r="F306" s="11"/>
-      <c r="G306" s="11"/>
-      <c r="H306" s="11"/>
-      <c r="I306" s="11"/>
-    </row>
-    <row r="307" spans="1:9">
-      <c r="A307" s="11"/>
-      <c r="B307" s="11"/>
-      <c r="C307" s="11"/>
-      <c r="D307" s="11"/>
-      <c r="E307" s="11"/>
-      <c r="F307" s="11"/>
-      <c r="G307" s="11"/>
-      <c r="H307" s="11"/>
-      <c r="I307" s="11"/>
-    </row>
-    <row r="308" spans="1:9">
-      <c r="A308" s="11"/>
-      <c r="B308" s="11"/>
-      <c r="C308" s="11"/>
-      <c r="D308" s="11"/>
-      <c r="E308" s="11"/>
-      <c r="F308" s="11"/>
-      <c r="G308" s="11"/>
-      <c r="H308" s="11"/>
-      <c r="I308" s="11"/>
-    </row>
-    <row r="309" spans="1:9">
-      <c r="A309" s="11"/>
-      <c r="B309" s="11"/>
-      <c r="C309" s="11"/>
-      <c r="D309" s="11"/>
-      <c r="E309" s="11"/>
-      <c r="F309" s="11"/>
-      <c r="G309" s="11"/>
-      <c r="H309" s="11"/>
-      <c r="I309" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
